--- a/results/109911_TestResult.xlsx
+++ b/results/109911_TestResult.xlsx
@@ -546,64 +546,64 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.02094954252243042</v>
+        <v>-0.02561855193370949</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.03408956527709961</v>
+        <v>-0.0429921412933034</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00475776195526123</v>
+        <v>0.004456256074490099</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.03796097636222839</v>
+        <v>-0.0392784892854254</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.03292223811149597</v>
+        <v>-0.0371344067752313</v>
       </c>
       <c r="G2" t="n">
-        <v>0.007046088576316833</v>
+        <v>0.00611853301437977</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>0.0006650964747642087</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01226578652858734</v>
+        <v>0.01190398321831716</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.03231269121170044</v>
+        <v>-0.03930352251497196</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.04349431395530701</v>
+        <v>-0.04284801497080412</v>
       </c>
       <c r="L2" t="n">
-        <v>1.157307386398315</v>
+        <v>0.6653425471322768</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00357462465763092</v>
+        <v>0.003477201239203039</v>
       </c>
       <c r="N2" t="n">
-        <v>0.001371309161186218</v>
+        <v>-0.0063601934993672</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0008150786161422729</v>
+        <v>0.0007664384192886194</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0005635172128677368</v>
+        <v>0.0004338205307747613</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.01024511456489563</v>
+        <v>-0.01370625889785301</v>
       </c>
       <c r="R2" t="n">
-        <v>0.006288200616836548</v>
+        <v>0.006410729927585164</v>
       </c>
       <c r="S2" t="n">
-        <v>0.009013205766677856</v>
+        <v>0.01037517941996864</v>
       </c>
       <c r="T2" t="n">
-        <v>0.004912734031677246</v>
+        <v>0.004941248830108779</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.03917106986045837</v>
+        <v>-0.037258321837853</v>
       </c>
     </row>
     <row r="3">
@@ -611,64 +611,64 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.02089086174964905</v>
+        <v>-0.02033617841452866</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.02818232774734497</v>
+        <v>-0.02971683589278537</v>
       </c>
       <c r="D3" t="n">
-        <v>0.004550844430923462</v>
+        <v>0.004556266539287565</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.02671694755554199</v>
+        <v>-0.03229399114978409</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0248170793056488</v>
+        <v>-0.02439222789770512</v>
       </c>
       <c r="G3" t="n">
-        <v>0.005541250109672546</v>
+        <v>0.004854582428190059</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>-0.00136664999615371</v>
       </c>
       <c r="I3" t="n">
-        <v>0.007985338568687439</v>
+        <v>0.01345904362806827</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.02485957741737366</v>
+        <v>-0.02479343450400242</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.04004004597663879</v>
+        <v>-0.03743953920202479</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2123187035322189</v>
+        <v>0.202759815715498</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00333385169506073</v>
+        <v>0.002640513287499503</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.0007309317588806152</v>
+        <v>0.005241244387712293</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0008042603731155396</v>
+        <v>0.0008317862767770127</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0005637854337692261</v>
+        <v>0.0004552793091889373</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.009617269039154053</v>
+        <v>0.004243996507060178</v>
       </c>
       <c r="R3" t="n">
-        <v>0.007927477359771729</v>
+        <v>0.008996452829288128</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01356838643550873</v>
+        <v>0.01476497748496846</v>
       </c>
       <c r="T3" t="n">
-        <v>0.006030768156051636</v>
+        <v>0.006468541735597282</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.02701875567436218</v>
+        <v>-0.03235685311317284</v>
       </c>
     </row>
     <row r="4">
@@ -676,64 +676,64 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0007478892803192139</v>
+        <v>-0.007093234952693747</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.04612460732460022</v>
+        <v>-0.04407597672965368</v>
       </c>
       <c r="D4" t="n">
-        <v>0.005057275295257568</v>
+        <v>0.004591884479977841</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.03790140151977539</v>
+        <v>-0.04104711254717337</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.03718811273574829</v>
+        <v>-0.04421113469379836</v>
       </c>
       <c r="G4" t="n">
-        <v>0.006501048803329468</v>
+        <v>0.006214291953903408</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07230156660079956</v>
+        <v>0.06971005677017314</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01977244019508362</v>
+        <v>0.01621632250959228</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.0422915518283844</v>
+        <v>-0.04361885088882211</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.03153443336486816</v>
+        <v>-0.03252102483460103</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04014405608177185</v>
+        <v>-0.03418643031848759</v>
       </c>
       <c r="M4" t="n">
-        <v>0.003424495458602905</v>
+        <v>0.003229631429668155</v>
       </c>
       <c r="N4" t="n">
-        <v>0.02467097342014313</v>
+        <v>0.02801045820545308</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0007910877466201782</v>
+        <v>0.0007456325202297824</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0005637854337692261</v>
+        <v>0.000422417588745199</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.01993340253829956</v>
+        <v>-0.02135973247958946</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01136018335819244</v>
+        <v>0.01197724203690142</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01779673993587494</v>
+        <v>0.01540187080464295</v>
       </c>
       <c r="T4" t="n">
-        <v>0.004371508955955505</v>
+        <v>0.004168420331440608</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.04112926125526428</v>
+        <v>-0.04611450754496912</v>
       </c>
     </row>
     <row r="5">
@@ -741,64 +741,64 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01994176208972931</v>
+        <v>0.01757705428609212</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.03855186700820923</v>
+        <v>-0.04493253418386148</v>
       </c>
       <c r="D5" t="n">
-        <v>0.004477605223655701</v>
+        <v>0.004583397268021814</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.04437398910522461</v>
+        <v>-0.04786729479791692</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.03848931193351746</v>
+        <v>-0.04122718542777727</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00634591281414032</v>
+        <v>0.007382401332050871</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>0.0002628815905150917</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00377558171749115</v>
+        <v>0.004533927202008392</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04026937484741211</v>
+        <v>-0.04098545358344775</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.04172691702842712</v>
+        <v>-0.0389164870678434</v>
       </c>
       <c r="L5" t="n">
-        <v>1.094341158866882</v>
+        <v>1.003761741313205</v>
       </c>
       <c r="M5" t="n">
-        <v>0.003579109907150269</v>
+        <v>0.003107976598355598</v>
       </c>
       <c r="N5" t="n">
-        <v>0.05118334293365479</v>
+        <v>0.04816984049024849</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0008740723133087158</v>
+        <v>0.0007960217542814276</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0006006807088851929</v>
+        <v>0.0007103956416454388</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.001866430044174194</v>
+        <v>0.00252298036346693</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01047639548778534</v>
+        <v>0.01047602877707433</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01531791687011719</v>
+        <v>0.01639870025935083</v>
       </c>
       <c r="T5" t="n">
-        <v>0.00383390486240387</v>
+        <v>0.004478945152338081</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.03639009594917297</v>
+        <v>-0.04198626430785144</v>
       </c>
     </row>
     <row r="6">
@@ -806,64 +806,64 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.01002523303031921</v>
+        <v>0.008692093198126452</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.02347609400749207</v>
+        <v>-0.02169955848424179</v>
       </c>
       <c r="D6" t="n">
-        <v>0.004953354597091675</v>
+        <v>0.004730401522996166</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.02286538481712341</v>
+        <v>-0.02192272317269121</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02237814664840698</v>
+        <v>-0.02003980292640513</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007029876112937927</v>
+        <v>0.006731007593939504</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0002395212650299072</v>
+        <v>0.001214586448847704</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0112806111574173</v>
+        <v>0.01014927919713264</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.01947522163391113</v>
+        <v>-0.01938209358978708</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.02113446593284607</v>
+        <v>-0.02474528629708032</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1258456259965897</v>
+        <v>0.1307931412163892</v>
       </c>
       <c r="M6" t="n">
-        <v>0.003449186682701111</v>
+        <v>0.003444371464329605</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01710356771945953</v>
+        <v>0.01182417516343314</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0008382499217987061</v>
+        <v>0.0008771110244886567</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0007780343294143677</v>
+        <v>0.0007600805066847531</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01031675934791565</v>
+        <v>0.008928381355311958</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01281566917896271</v>
+        <v>0.01491924000044707</v>
       </c>
       <c r="S6" t="n">
-        <v>0.01554884016513824</v>
+        <v>0.0149302166213379</v>
       </c>
       <c r="T6" t="n">
-        <v>0.004022166132926941</v>
+        <v>0.004469953347538428</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.02468904852867126</v>
+        <v>-0.02473587003274576</v>
       </c>
     </row>
     <row r="7">
@@ -871,64 +871,64 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02003422379493713</v>
+        <v>0.01672722543070228</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0195884108543396</v>
+        <v>-0.0167414514241093</v>
       </c>
       <c r="D7" t="n">
-        <v>0.004794672131538391</v>
+        <v>0.004696956951647452</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.01668158173561096</v>
+        <v>-0.01547357511827004</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.01503643393516541</v>
+        <v>-0.01825174660270877</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006629854440689087</v>
+        <v>0.005811341497389113</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>0.001102406164164322</v>
       </c>
       <c r="I7" t="n">
-        <v>0.008906468749046326</v>
+        <v>0.008725864362242729</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.0171656608581543</v>
+        <v>-0.02180123761905552</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.01788485050201416</v>
+        <v>-0.01751328972075281</v>
       </c>
       <c r="L7" t="n">
-        <v>1.485801458358765</v>
+        <v>2.410166650896461</v>
       </c>
       <c r="M7" t="n">
-        <v>0.003400728106498718</v>
+        <v>0.003107388710291775</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0223192572593689</v>
+        <v>0.01021236350496522</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0009344518184661865</v>
+        <v>0.0009283041898631909</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0005635172128677368</v>
+        <v>0.0004691725632514752</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.008153811097145081</v>
+        <v>0.007109450071257028</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01832236349582672</v>
+        <v>0.0138659092480148</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0167156457901001</v>
+        <v>0.01474900508776917</v>
       </c>
       <c r="T7" t="n">
-        <v>0.005863025784492493</v>
+        <v>0.005962007781229666</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.02056419849395752</v>
+        <v>-0.0220610551891682</v>
       </c>
     </row>
     <row r="8">
@@ -936,64 +936,64 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.008403033018112183</v>
+        <v>-0.008502638325551374</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0224650502204895</v>
+        <v>-0.02550894451306191</v>
       </c>
       <c r="D8" t="n">
-        <v>0.005365580320358276</v>
+        <v>0.004469529904311547</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.01673921942710876</v>
+        <v>-0.01389640025683937</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.01847529411315918</v>
+        <v>-0.01695522867762388</v>
       </c>
       <c r="G8" t="n">
-        <v>0.006208762526512146</v>
+        <v>0.006794441895250041</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>-0.001036795392716806</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00955498218536377</v>
+        <v>0.01062466802124885</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.01937857270240784</v>
+        <v>-0.01799198172209992</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.02204316854476929</v>
+        <v>-0.026223072122277</v>
       </c>
       <c r="L8" t="n">
-        <v>1.814691662788391</v>
+        <v>1.878364662069686</v>
       </c>
       <c r="M8" t="n">
-        <v>0.003345102071762085</v>
+        <v>0.003285432131200524</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.0004258155822753906</v>
+        <v>0.001006281292376424</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0007938593626022339</v>
+        <v>0.000741836200977812</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0005637854337692261</v>
+        <v>0.0004658956247205414</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.007719725370407104</v>
+        <v>0.01132867243176013</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01165851950645447</v>
+        <v>0.01412889223631388</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01671440899372101</v>
+        <v>0.01518125917342336</v>
       </c>
       <c r="T8" t="n">
-        <v>0.002890944480895996</v>
+        <v>0.003298746376490901</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.0152866542339325</v>
+        <v>-0.01339182254590522</v>
       </c>
     </row>
     <row r="9">
@@ -1001,64 +1001,64 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01007525622844696</v>
+        <v>0.009463608158671458</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.01631888747215271</v>
+        <v>-0.01516634764842407</v>
       </c>
       <c r="D9" t="n">
-        <v>0.004794105887413025</v>
+        <v>0.005110699885449342</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.01798588037490845</v>
+        <v>-0.01584734884867239</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.0171559751033783</v>
+        <v>-0.01689247383595506</v>
       </c>
       <c r="G9" t="n">
-        <v>0.006157293915748596</v>
+        <v>0.006492923525759029</v>
       </c>
       <c r="H9" t="n">
-        <v>0.09142059087753296</v>
+        <v>0.0996072351991629</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01134014129638672</v>
+        <v>0.01193154047468563</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.01980793476104736</v>
+        <v>-0.01983958363949796</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.01703938841819763</v>
+        <v>-0.01817806573916879</v>
       </c>
       <c r="L9" t="n">
-        <v>2.938823699951172</v>
+        <v>2.768604544638817</v>
       </c>
       <c r="M9" t="n">
-        <v>0.003312230110168457</v>
+        <v>0.00335790605278048</v>
       </c>
       <c r="N9" t="n">
-        <v>0.006061196327209473</v>
+        <v>0.006560911293562211</v>
       </c>
       <c r="O9" t="n">
-        <v>0.000734478235244751</v>
+        <v>0.0005738442334398805</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0006142705678939819</v>
+        <v>0.0005573693568660168</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.009976178407669067</v>
+        <v>0.01040452645238044</v>
       </c>
       <c r="R9" t="n">
-        <v>0.01629072427749634</v>
+        <v>0.01666298715463852</v>
       </c>
       <c r="S9" t="n">
-        <v>0.01554696261882782</v>
+        <v>0.0185230632180104</v>
       </c>
       <c r="T9" t="n">
-        <v>0.004054129123687744</v>
+        <v>0.00486235084490719</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.01437669992446899</v>
+        <v>-0.01686305492128433</v>
       </c>
     </row>
     <row r="10">
@@ -1066,64 +1066,64 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>2.314150333404541e-05</v>
+        <v>0.002147361473887229</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.04709529876708984</v>
+        <v>-0.04299278175567779</v>
       </c>
       <c r="D10" t="n">
-        <v>0.004917696118354797</v>
+        <v>0.004546931720301273</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04497027397155762</v>
+        <v>-0.04189352292517132</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.04619035124778748</v>
+        <v>-0.0434694085226788</v>
       </c>
       <c r="G10" t="n">
-        <v>0.006326541304588318</v>
+        <v>0.005620578212685903</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008074492216110229</v>
+        <v>0.004304025275412625</v>
       </c>
       <c r="I10" t="n">
-        <v>0.00874483585357666</v>
+        <v>0.007741002936545817</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.03891220688819885</v>
+        <v>-0.03879584980031676</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.03761857748031616</v>
+        <v>-0.0427536964677578</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04823499917984009</v>
+        <v>0.040606663274826</v>
       </c>
       <c r="M10" t="n">
-        <v>0.003325283527374268</v>
+        <v>0.003464727615566015</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01182277500629425</v>
+        <v>0.01041082194158506</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0009767264127731323</v>
+        <v>0.001072916395786521</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0006006807088851929</v>
+        <v>0.0006162163275946926</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01009322702884674</v>
+        <v>0.0107174698263511</v>
       </c>
       <c r="R10" t="n">
-        <v>0.009431257843971252</v>
+        <v>0.008305990162960483</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01581181585788727</v>
+        <v>0.01475486719185045</v>
       </c>
       <c r="T10" t="n">
-        <v>0.003960892558097839</v>
+        <v>0.004177364953949308</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.04499337077140808</v>
+        <v>-0.04835342765657773</v>
       </c>
     </row>
     <row r="11">
@@ -1131,64 +1131,64 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01002523303031921</v>
+        <v>0.008711996842894892</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.01931723952293396</v>
+        <v>-0.01994753359371526</v>
       </c>
       <c r="D11" t="n">
-        <v>0.004425659775733948</v>
+        <v>0.004747603307324933</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01743492484092712</v>
+        <v>-0.01630577768999516</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.0169425904750824</v>
+        <v>-0.0145760873774064</v>
       </c>
       <c r="G11" t="n">
-        <v>0.007037222385406494</v>
+        <v>0.007391110810642506</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>-0.00136772416886616</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01237577199935913</v>
+        <v>0.01217637408172705</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.01539799571037292</v>
+        <v>-0.01281732437010444</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0182720422744751</v>
+        <v>-0.01852029941425378</v>
       </c>
       <c r="L11" t="n">
-        <v>1.05546760559082</v>
+        <v>1.104659898352753</v>
       </c>
       <c r="M11" t="n">
-        <v>0.003888055682182312</v>
+        <v>0.003682558841441033</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0496121346950531</v>
+        <v>0.05121550016991663</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0009452700614929199</v>
+        <v>0.0009774371637606219</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0005637854337692261</v>
+        <v>0.0004477757831363345</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.009939894080162048</v>
+        <v>0.008861844057231706</v>
       </c>
       <c r="R11" t="n">
-        <v>0.008051231503486633</v>
+        <v>0.008168063889325627</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0172441303730011</v>
+        <v>0.0152368435385717</v>
       </c>
       <c r="T11" t="n">
-        <v>0.004559233784675598</v>
+        <v>0.00471281140698538</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.01428529620170593</v>
+        <v>-0.0117617923720054</v>
       </c>
     </row>
     <row r="12">
@@ -1196,64 +1196,64 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.009963184595108032</v>
+        <v>-0.007955708193961889</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.04308712482452393</v>
+        <v>-0.04624575725367207</v>
       </c>
       <c r="D12" t="n">
-        <v>0.004821881651878357</v>
+        <v>0.004674298046251583</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.04405555129051208</v>
+        <v>-0.04741247930889596</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.03576081991195679</v>
+        <v>-0.03570913101065745</v>
       </c>
       <c r="G12" t="n">
-        <v>0.007582217454910278</v>
+        <v>0.006408710528767937</v>
       </c>
       <c r="H12" t="n">
-        <v>0.07230962812900543</v>
+        <v>0.07616672061950075</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01184399425983429</v>
+        <v>0.01351869509625824</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.04270535707473755</v>
+        <v>-0.0427198598584702</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.04747781157493591</v>
+        <v>-0.04903303005247166</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1295266300439835</v>
+        <v>0.07110654172968012</v>
       </c>
       <c r="M12" t="n">
-        <v>0.003367811441421509</v>
+        <v>0.00320488504298118</v>
       </c>
       <c r="N12" t="n">
-        <v>0.00705072283744812</v>
+        <v>0.002384478600057837</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0009295195341110229</v>
+        <v>0.0009597430329304987</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0005808323621749878</v>
+        <v>0.0005204421671798842</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.009892135858535767</v>
+        <v>-0.006501128892612362</v>
       </c>
       <c r="R12" t="n">
-        <v>0.00689658522605896</v>
+        <v>0.007789112497880109</v>
       </c>
       <c r="S12" t="n">
-        <v>0.01018963754177094</v>
+        <v>0.01003721933121774</v>
       </c>
       <c r="T12" t="n">
-        <v>0.005629420280456543</v>
+        <v>0.005720056320742953</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.04153096675872803</v>
+        <v>-0.03882999000448328</v>
       </c>
     </row>
     <row r="13">
@@ -1261,64 +1261,64 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.01002523303031921</v>
+        <v>0.01135586910671993</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.04251748323440552</v>
+        <v>-0.0424463869656572</v>
       </c>
       <c r="D13" t="n">
-        <v>0.004908159375190735</v>
+        <v>0.004287467495702663</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.04388883709907532</v>
+        <v>-0.05232532569240717</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.04268211126327515</v>
+        <v>-0.03731938968258035</v>
       </c>
       <c r="G13" t="n">
-        <v>0.006751269102096558</v>
+        <v>0.006595745213483513</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07246506214141846</v>
+        <v>0.07810441513296809</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0126672238111496</v>
+        <v>0.01544690592215162</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.04152750968933105</v>
+        <v>-0.03864213096680157</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.04074665904045105</v>
+        <v>-0.04297652377055384</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7186681032180786</v>
+        <v>0.3352590777129941</v>
       </c>
       <c r="M13" t="n">
-        <v>0.00319923460483551</v>
+        <v>0.002963526157538104</v>
       </c>
       <c r="N13" t="n">
-        <v>0.006173014640808105</v>
+        <v>-0.0005407903305180735</v>
       </c>
       <c r="O13" t="n">
-        <v>0.001014724373817444</v>
+        <v>0.001197637127382791</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0006142705678939819</v>
+        <v>0.0005803243320679015</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01041467487812042</v>
+        <v>0.009778180854390901</v>
       </c>
       <c r="R13" t="n">
-        <v>0.01499485969543457</v>
+        <v>0.01780703071583842</v>
       </c>
       <c r="S13" t="n">
-        <v>0.01450091600418091</v>
+        <v>0.01482716070934007</v>
       </c>
       <c r="T13" t="n">
-        <v>0.00594763457775116</v>
+        <v>0.006117213390476828</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.04295054078102112</v>
+        <v>-0.04492347724590226</v>
       </c>
     </row>
     <row r="14">
@@ -1326,64 +1326,64 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01998420059680939</v>
+        <v>0.0201012469677007</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.01786470413208008</v>
+        <v>-0.01837687915656058</v>
       </c>
       <c r="D14" t="n">
-        <v>0.004449471831321716</v>
+        <v>0.004040427842812068</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.02461344003677368</v>
+        <v>-0.02426653248597964</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01959776878356934</v>
+        <v>-0.01662237617298309</v>
       </c>
       <c r="G14" t="n">
-        <v>0.006665140390396118</v>
+        <v>0.006607825021050285</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>-0.001316932983742862</v>
       </c>
       <c r="I14" t="n">
-        <v>0.009994357824325562</v>
+        <v>0.0130121499758545</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.01833131909370422</v>
+        <v>-0.02176881532643864</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.01896694302558899</v>
+        <v>-0.02069038804054309</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1432193964719772</v>
+        <v>0.2185932722738629</v>
       </c>
       <c r="M14" t="n">
-        <v>0.003665938973426819</v>
+        <v>0.003458892153721556</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.008121669292449951</v>
+        <v>-0.00913206601128291</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0007938593626022339</v>
+        <v>0.0007379637660337544</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0006144493818283081</v>
+        <v>0.0006487124210960611</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.01998758316040039</v>
+        <v>0.01825618154727228</v>
       </c>
       <c r="R14" t="n">
-        <v>0.006912305951118469</v>
+        <v>0.007923188164631849</v>
       </c>
       <c r="S14" t="n">
-        <v>0.01433850824832916</v>
+        <v>0.01135669170409223</v>
       </c>
       <c r="T14" t="n">
-        <v>0.005500838160514832</v>
+        <v>0.005340316163196258</v>
       </c>
       <c r="U14" t="n">
-        <v>-0.01239955425262451</v>
+        <v>-0.01148898792016552</v>
       </c>
     </row>
     <row r="15">
@@ -1391,64 +1391,64 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01007525622844696</v>
+        <v>0.007528606768953311</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.01757806539535522</v>
+        <v>-0.01988158699103652</v>
       </c>
       <c r="D15" t="n">
-        <v>0.004458844661712646</v>
+        <v>0.004579488438008698</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.01454636454582214</v>
+        <v>-0.01732370310364635</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01632681488990784</v>
+        <v>-0.01173148255884843</v>
       </c>
       <c r="G15" t="n">
-        <v>0.006681278347969055</v>
+        <v>0.007327467464251993</v>
       </c>
       <c r="H15" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>-0.0009066686212962202</v>
       </c>
       <c r="I15" t="n">
-        <v>0.007236778736114502</v>
+        <v>0.007476479406054739</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.01831063628196716</v>
+        <v>-0.01585100982396748</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.01714780926704407</v>
+        <v>-0.01985022398847444</v>
       </c>
       <c r="L15" t="n">
-        <v>2.387590408325195</v>
+        <v>2.4279692820181</v>
       </c>
       <c r="M15" t="n">
-        <v>0.003297239542007446</v>
+        <v>0.002935958178596636</v>
       </c>
       <c r="N15" t="n">
-        <v>0.002901852130889893</v>
+        <v>0.004111504157807409</v>
       </c>
       <c r="O15" t="n">
-        <v>0.001009970903396606</v>
+        <v>0.001119177578207103</v>
       </c>
       <c r="P15" t="n">
-        <v>0.0005637854337692261</v>
+        <v>0.0004684724179735867</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0198129415512085</v>
+        <v>0.0192733660314425</v>
       </c>
       <c r="R15" t="n">
-        <v>0.01219597458839417</v>
+        <v>0.0101146561623248</v>
       </c>
       <c r="S15" t="n">
-        <v>0.01395437121391296</v>
+        <v>0.01278899428307059</v>
       </c>
       <c r="T15" t="n">
-        <v>0.003480076789855957</v>
+        <v>0.003951360412205787</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.01603043079376221</v>
+        <v>-0.01409780383613057</v>
       </c>
     </row>
     <row r="16">
@@ -1456,64 +1456,64 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.009329020977020264</v>
+        <v>-0.006380793260945802</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.04542386531829834</v>
+        <v>-0.04680660963511781</v>
       </c>
       <c r="D16" t="n">
-        <v>0.004531979560852051</v>
+        <v>0.004618735867337775</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.04686197638511658</v>
+        <v>-0.0477685243490199</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.03875464200973511</v>
+        <v>-0.03795697880232041</v>
       </c>
       <c r="G16" t="n">
-        <v>0.009257078170776367</v>
+        <v>0.009214612022068856</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>0.001058992795417829</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01002982258796692</v>
+        <v>0.006110044715481933</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.03898042440414429</v>
+        <v>-0.04037415584210474</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.04588612914085388</v>
+        <v>-0.04794428034688338</v>
       </c>
       <c r="L16" t="n">
-        <v>0.175953596830368</v>
+        <v>0.253569939493519</v>
       </c>
       <c r="M16" t="n">
-        <v>0.003447592258453369</v>
+        <v>0.003229984733622028</v>
       </c>
       <c r="N16" t="n">
-        <v>0.00342598557472229</v>
+        <v>0.0004861217427599343</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0009311288595199585</v>
+        <v>0.0009621612945778139</v>
       </c>
       <c r="P16" t="n">
-        <v>0.0005811005830764771</v>
+        <v>0.0006062693724998937</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.009872496128082275</v>
+        <v>-0.007257461198506154</v>
       </c>
       <c r="R16" t="n">
-        <v>0.007188558578491211</v>
+        <v>0.007094743006341322</v>
       </c>
       <c r="S16" t="n">
-        <v>0.01110388338565826</v>
+        <v>0.01195999770812805</v>
       </c>
       <c r="T16" t="n">
-        <v>0.003409311175346375</v>
+        <v>0.003924722974784416</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.04213440418243408</v>
+        <v>-0.03802876750132922</v>
       </c>
     </row>
     <row r="17">
@@ -1521,64 +1521,64 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0115651935338974</v>
+        <v>0.01078647830806697</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.03038293123245239</v>
+        <v>-0.0304699450171742</v>
       </c>
       <c r="D17" t="n">
-        <v>0.004618659615516663</v>
+        <v>0.004554342340232703</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.03690811991691589</v>
+        <v>-0.03720053770602438</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.02249583601951599</v>
+        <v>-0.0290795431404628</v>
       </c>
       <c r="G17" t="n">
-        <v>0.006728962063789368</v>
+        <v>0.007367248067042744</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>0.004738985094628022</v>
       </c>
       <c r="I17" t="n">
-        <v>0.004904970526695251</v>
+        <v>0.007707128534353217</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.01876530051231384</v>
+        <v>-0.02348762379734888</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.02730503678321838</v>
+        <v>-0.02856561819402693</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1497659981250763</v>
+        <v>0.01860158916505456</v>
       </c>
       <c r="M17" t="n">
-        <v>0.003130793571472168</v>
+        <v>0.003471334130025226</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.0008450448513031006</v>
+        <v>0.01029459175421149</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0009700655937194824</v>
+        <v>0.001065973406859578</v>
       </c>
       <c r="P17" t="n">
-        <v>0.0005833655595779419</v>
+        <v>0.0005178861537179367</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.009821712970733643</v>
+        <v>-0.006023857506490732</v>
       </c>
       <c r="R17" t="n">
-        <v>0.01160483062267303</v>
+        <v>0.01395189646700684</v>
       </c>
       <c r="S17" t="n">
-        <v>0.01569029688835144</v>
+        <v>0.01959511364734447</v>
       </c>
       <c r="T17" t="n">
-        <v>0.004156172275543213</v>
+        <v>0.004276601682613312</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.04542306065559387</v>
+        <v>-0.03962211174363445</v>
       </c>
     </row>
     <row r="18">
@@ -1586,64 +1586,64 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0006754249334335327</v>
+        <v>0.001316418476816309</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.01836898922920227</v>
+        <v>-0.01902232940431905</v>
       </c>
       <c r="D18" t="n">
-        <v>0.004681587219238281</v>
+        <v>0.004357471019058671</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.01650503277778625</v>
+        <v>-0.01647593253991485</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.0155785083770752</v>
+        <v>-0.01578858117484936</v>
       </c>
       <c r="G18" t="n">
-        <v>0.006320327520370483</v>
+        <v>0.007122500064114356</v>
       </c>
       <c r="H18" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>-0.0001649757223819328</v>
       </c>
       <c r="I18" t="n">
-        <v>0.01029711961746216</v>
+        <v>0.01386544117228906</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.01568424701690674</v>
+        <v>-0.01441893968814091</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.01944145560264587</v>
+        <v>-0.01867902582787935</v>
       </c>
       <c r="L18" t="n">
-        <v>1.307127952575684</v>
+        <v>1.565583636699027</v>
       </c>
       <c r="M18" t="n">
-        <v>0.003186270594596863</v>
+        <v>0.003586581034729959</v>
       </c>
       <c r="N18" t="n">
-        <v>0.01116237044334412</v>
+        <v>0.003782267013420125</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0008954256772994995</v>
+        <v>0.0008391080410954975</v>
       </c>
       <c r="P18" t="n">
-        <v>0.0006004124879837036</v>
+        <v>0.0005701800276293854</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.00976330041885376</v>
+        <v>-0.002060072999935394</v>
       </c>
       <c r="R18" t="n">
-        <v>0.00725691020488739</v>
+        <v>0.007613024508060005</v>
       </c>
       <c r="S18" t="n">
-        <v>0.01574194431304932</v>
+        <v>0.01313968664705576</v>
       </c>
       <c r="T18" t="n">
-        <v>0.004632800817489624</v>
+        <v>0.005703374417634293</v>
       </c>
       <c r="U18" t="n">
-        <v>-0.01533743739128113</v>
+        <v>-0.01478080302213331</v>
       </c>
     </row>
     <row r="19">
@@ -1651,64 +1651,64 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>7.316470146179199e-05</v>
+        <v>0.0003698833570795663</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.04420053958892822</v>
+        <v>-0.04135084437377796</v>
       </c>
       <c r="D19" t="n">
-        <v>0.004486575722694397</v>
+        <v>0.004293509961151953</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.03874102234840393</v>
+        <v>-0.03880312641633754</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.04306274652481079</v>
+        <v>-0.03662922840876304</v>
       </c>
       <c r="G19" t="n">
-        <v>0.006061002612113953</v>
+        <v>0.007145219823369081</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>0.003719503074470428</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01617968082427979</v>
+        <v>0.01329917005445152</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.04325690865516663</v>
+        <v>-0.04329623409394641</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.04229998588562012</v>
+        <v>-0.0472483214050267</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1238691061735153</v>
+        <v>0.1229625811545322</v>
       </c>
       <c r="M19" t="n">
-        <v>0.00330527126789093</v>
+        <v>0.003534558983454855</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.001832470297813416</v>
+        <v>-0.004114225356449552</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0008476376533508301</v>
+        <v>0.0007830381424948038</v>
       </c>
       <c r="P19" t="n">
-        <v>0.0005808323621749878</v>
+        <v>0.0004767933215171653</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.01000423729419708</v>
+        <v>0.01113452686374014</v>
       </c>
       <c r="R19" t="n">
-        <v>0.007481426000595093</v>
+        <v>0.008577121433623734</v>
       </c>
       <c r="S19" t="n">
-        <v>0.01275293529033661</v>
+        <v>0.01214673592535846</v>
       </c>
       <c r="T19" t="n">
-        <v>0.005529075860977173</v>
+        <v>0.00553319422749836</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.04226157069206238</v>
+        <v>-0.04472173807435222</v>
       </c>
     </row>
     <row r="20">
@@ -1716,64 +1716,64 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.02008455991744995</v>
+        <v>-0.01957393276005005</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0423438549041748</v>
+        <v>-0.04180001226348134</v>
       </c>
       <c r="D20" t="n">
-        <v>0.004407584667205811</v>
+        <v>0.004373273209575685</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.03891396522521973</v>
+        <v>-0.03789797520998021</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.034830242395401</v>
+        <v>-0.03756807587439104</v>
       </c>
       <c r="G20" t="n">
-        <v>0.006433114409446716</v>
+        <v>0.007247473159520278</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>-0.0009674727884335228</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01298923790454865</v>
+        <v>0.01437278574278461</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.03820237517356873</v>
+        <v>-0.04629943840602006</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.04200002551078796</v>
+        <v>-0.04266316245203046</v>
       </c>
       <c r="L20" t="n">
-        <v>1.381504654884338</v>
+        <v>0.7475100695493948</v>
       </c>
       <c r="M20" t="n">
-        <v>0.003180056810379028</v>
+        <v>0.002909367344919558</v>
       </c>
       <c r="N20" t="n">
-        <v>0.004289239645004272</v>
+        <v>-0.002679849100506759</v>
       </c>
       <c r="O20" t="n">
-        <v>0.000734478235244751</v>
+        <v>0.0006034680884049235</v>
       </c>
       <c r="P20" t="n">
-        <v>0.0006006807088851929</v>
+        <v>0.0005690141035633193</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.01996985077857971</v>
+        <v>0.01641050910498734</v>
       </c>
       <c r="R20" t="n">
-        <v>0.00758710503578186</v>
+        <v>0.006174349365940303</v>
       </c>
       <c r="S20" t="n">
-        <v>0.009866967797279358</v>
+        <v>0.009445427677165727</v>
       </c>
       <c r="T20" t="n">
-        <v>0.004640921950340271</v>
+        <v>0.005915776601999998</v>
       </c>
       <c r="U20" t="n">
-        <v>-0.04166397452354431</v>
+        <v>-0.03464381461622338</v>
       </c>
     </row>
     <row r="21">
@@ -1781,64 +1781,64 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>-6.935000419616699e-05</v>
+        <v>-0.002070785636891303</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.04469218850135803</v>
+        <v>-0.04299046617087759</v>
       </c>
       <c r="D21" t="n">
-        <v>0.004594683647155762</v>
+        <v>0.004418528220643593</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.04179546236991882</v>
+        <v>-0.04388829326462814</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.03929188847541809</v>
+        <v>-0.04191347012693027</v>
       </c>
       <c r="G21" t="n">
-        <v>0.006736055016517639</v>
+        <v>0.006995330065489477</v>
       </c>
       <c r="H21" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>-0.001836943388021619</v>
       </c>
       <c r="I21" t="n">
-        <v>0.009408801794052124</v>
+        <v>0.0136765800351664</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.04316437244415283</v>
+        <v>-0.03776880144580758</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.04637080430984497</v>
+        <v>-0.04590467511706652</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1238056123256683</v>
+        <v>0.1474283950308194</v>
       </c>
       <c r="M21" t="n">
-        <v>0.003613844513893127</v>
+        <v>0.003394609773347158</v>
       </c>
       <c r="N21" t="n">
-        <v>0.03340646624565125</v>
+        <v>0.03623372831816288</v>
       </c>
       <c r="O21" t="n">
-        <v>0.001016095280647278</v>
+        <v>0.001195756392415966</v>
       </c>
       <c r="P21" t="n">
-        <v>0.0005811005830764771</v>
+        <v>0.0005958844744500115</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.01007208228111267</v>
+        <v>-0.01477102503906576</v>
       </c>
       <c r="R21" t="n">
-        <v>0.007063731551170349</v>
+        <v>0.007687276494116326</v>
       </c>
       <c r="S21" t="n">
-        <v>0.01180693507194519</v>
+        <v>0.01503537911919495</v>
       </c>
       <c r="T21" t="n">
-        <v>0.004399582743644714</v>
+        <v>0.004176495286485174</v>
       </c>
       <c r="U21" t="n">
-        <v>-0.04318204522132874</v>
+        <v>-0.04430884645293364</v>
       </c>
     </row>
     <row r="22">
@@ -1846,64 +1846,64 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.01916424930095673</v>
+        <v>0.01381119102470241</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.02537700533866882</v>
+        <v>-0.02074292651536173</v>
       </c>
       <c r="D22" t="n">
-        <v>0.004900425672531128</v>
+        <v>0.00442158931402513</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.02142438292503357</v>
+        <v>-0.0245999232554994</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.02326887845993042</v>
+        <v>-0.01732524909472215</v>
       </c>
       <c r="G22" t="n">
-        <v>0.009034201502799988</v>
+        <v>0.009248549642354102</v>
       </c>
       <c r="H22" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>0.0006207804891403385</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01070335507392883</v>
+        <v>0.009875302347631808</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.02137550711631775</v>
+        <v>-0.01688743476474862</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.01740217208862305</v>
+        <v>-0.02355020857173535</v>
       </c>
       <c r="L22" t="n">
-        <v>1.668072700500488</v>
+        <v>1.13392596605987</v>
       </c>
       <c r="M22" t="n">
-        <v>0.00367271900177002</v>
+        <v>0.002703154525766579</v>
       </c>
       <c r="N22" t="n">
-        <v>0.04955597221851349</v>
+        <v>0.04695837526125535</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0009818524122238159</v>
+        <v>0.001111012028991712</v>
       </c>
       <c r="P22" t="n">
-        <v>0.0008112788200378418</v>
+        <v>0.0009293711242374008</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.02125842869281769</v>
+        <v>0.01873475879137939</v>
       </c>
       <c r="R22" t="n">
-        <v>0.0111888200044632</v>
+        <v>0.01059876787208019</v>
       </c>
       <c r="S22" t="n">
-        <v>0.01405230164527893</v>
+        <v>0.01426965926335217</v>
       </c>
       <c r="T22" t="n">
-        <v>0.004386946558952332</v>
+        <v>0.004529548814858231</v>
       </c>
       <c r="U22" t="n">
-        <v>-0.01681631803512573</v>
+        <v>-0.01052235525510198</v>
       </c>
     </row>
     <row r="23">
@@ -1911,64 +1911,64 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0008053630590438843</v>
+        <v>-0.0005211392001888402</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.0454820990562439</v>
+        <v>-0.04766005467909541</v>
       </c>
       <c r="D23" t="n">
-        <v>0.004610657691955566</v>
+        <v>0.004581998671794053</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.03985252976417542</v>
+        <v>-0.04504807874326056</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.04222655296325684</v>
+        <v>-0.0436306848153824</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01017236709594727</v>
+        <v>0.00900547426912324</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1024150848388672</v>
+        <v>0.09121537999265333</v>
       </c>
       <c r="I23" t="n">
-        <v>0.007024213671684265</v>
+        <v>0.006603846556341057</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.04136812686920166</v>
+        <v>-0.04025082599948052</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.040082186460495</v>
+        <v>-0.04262269373627333</v>
       </c>
       <c r="L23" t="n">
-        <v>1.439153909683228</v>
+        <v>1.374298198084832</v>
       </c>
       <c r="M23" t="n">
-        <v>0.003337651491165161</v>
+        <v>0.00318801584760796</v>
       </c>
       <c r="N23" t="n">
-        <v>0.04935812950134277</v>
+        <v>0.04803779183100997</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0009495764970779419</v>
+        <v>0.0009985009125613176</v>
       </c>
       <c r="P23" t="n">
-        <v>0.0006006807088851929</v>
+        <v>0.0006255014469678348</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.01007963716983795</v>
+        <v>0.01095686521691221</v>
       </c>
       <c r="R23" t="n">
-        <v>0.01026862859725952</v>
+        <v>0.008666458160182966</v>
       </c>
       <c r="S23" t="n">
-        <v>0.01773415505886078</v>
+        <v>0.01608565240485217</v>
       </c>
       <c r="T23" t="n">
-        <v>0.004206553101539612</v>
+        <v>0.004121329331173469</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.04492077231407166</v>
+        <v>-0.05020702236507209</v>
       </c>
     </row>
     <row r="24">
@@ -1976,64 +1976,64 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0003279447555541992</v>
+        <v>-0.001053019742617861</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.04352223873138428</v>
+        <v>-0.04934609473031674</v>
       </c>
       <c r="D24" t="n">
-        <v>0.004510089755058289</v>
+        <v>0.004376528640953937</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.04300853610038757</v>
+        <v>-0.04912299955339607</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.03987264633178711</v>
+        <v>-0.0406867424020351</v>
       </c>
       <c r="G24" t="n">
-        <v>0.009829714894294739</v>
+        <v>0.009205441387315192</v>
       </c>
       <c r="H24" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>-0.0006194785778428687</v>
       </c>
       <c r="I24" t="n">
-        <v>0.007622659206390381</v>
+        <v>0.0111766915390128</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.04011449217796326</v>
+        <v>-0.04289612477204083</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.04291635751724243</v>
+        <v>-0.04201836817647039</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1822323650121689</v>
+        <v>0.3028987506126934</v>
       </c>
       <c r="M24" t="n">
-        <v>0.003382012248039246</v>
+        <v>0.003703530438456713</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.01230457425117493</v>
+        <v>-0.01975339044160708</v>
       </c>
       <c r="O24" t="n">
-        <v>0.00075569748878479</v>
+        <v>0.0007942782866266964</v>
       </c>
       <c r="P24" t="n">
-        <v>0.0006006807088851929</v>
+        <v>0.0006347726882182498</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.009827449917793274</v>
+        <v>0.006693644514079358</v>
       </c>
       <c r="R24" t="n">
-        <v>0.007822975516319275</v>
+        <v>0.008490420706745345</v>
       </c>
       <c r="S24" t="n">
-        <v>0.01845920085906982</v>
+        <v>0.01736656568417107</v>
       </c>
       <c r="T24" t="n">
-        <v>0.00461442768573761</v>
+        <v>0.004305965414884419</v>
       </c>
       <c r="U24" t="n">
-        <v>-0.04239192605018616</v>
+        <v>-0.04093526991879606</v>
       </c>
     </row>
     <row r="25">
@@ -2041,64 +2041,64 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.01033204793930054</v>
+        <v>-0.00546635995255558</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.01857000589370728</v>
+        <v>-0.02312841683082398</v>
       </c>
       <c r="D25" t="n">
-        <v>0.004815831780433655</v>
+        <v>0.004755656357507723</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.01879099011421204</v>
+        <v>-0.01752521642881752</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.02018183469772339</v>
+        <v>-0.02061092390527905</v>
       </c>
       <c r="G25" t="n">
-        <v>0.007149681448936462</v>
+        <v>0.008525292791123613</v>
       </c>
       <c r="H25" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>0.0009470176687514037</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01024255156517029</v>
+        <v>0.009885100101753266</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.01797202229499817</v>
+        <v>-0.01273644086995305</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.01793557405471802</v>
+        <v>-0.02114388280459748</v>
       </c>
       <c r="L25" t="n">
-        <v>2.029867649078369</v>
+        <v>2.097430971760802</v>
       </c>
       <c r="M25" t="n">
-        <v>0.003601312637329102</v>
+        <v>0.003371316729474768</v>
       </c>
       <c r="N25" t="n">
-        <v>0.009418889880180359</v>
+        <v>0.005664970193492971</v>
       </c>
       <c r="O25" t="n">
-        <v>0.000735744833946228</v>
+        <v>0.000653865724714472</v>
       </c>
       <c r="P25" t="n">
-        <v>0.0007953494787216187</v>
+        <v>0.0008450324499324308</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.009802401065826416</v>
+        <v>-0.00818645102357536</v>
       </c>
       <c r="R25" t="n">
-        <v>0.008483290672302246</v>
+        <v>0.009115590863954678</v>
       </c>
       <c r="S25" t="n">
-        <v>0.01237638294696808</v>
+        <v>0.01130878732900143</v>
       </c>
       <c r="T25" t="n">
-        <v>0.005738720297813416</v>
+        <v>0.005211727536996419</v>
       </c>
       <c r="U25" t="n">
-        <v>-0.01613494753837585</v>
+        <v>-0.01554480986863673</v>
       </c>
     </row>
     <row r="26">
@@ -2106,64 +2106,64 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>-2.688169479370117e-05</v>
+        <v>0.0005020608494647761</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.01968061923980713</v>
+        <v>-0.02051220604539885</v>
       </c>
       <c r="D26" t="n">
-        <v>0.004777282476425171</v>
+        <v>0.004749650735374305</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.01488566398620605</v>
+        <v>-0.01765452571829432</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.01732981204986572</v>
+        <v>-0.02059348516143001</v>
       </c>
       <c r="G26" t="n">
-        <v>0.007305294275283813</v>
+        <v>0.007575273267442179</v>
       </c>
       <c r="H26" t="n">
-        <v>0.06701326370239258</v>
+        <v>0.01712998466565272</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01144623756408691</v>
+        <v>0.01263583065585796</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.01680457592010498</v>
+        <v>-0.01507044698160056</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.01740729808807373</v>
+        <v>-0.0169958174215504</v>
       </c>
       <c r="L26" t="n">
-        <v>0.6932792067527771</v>
+        <v>0.7599093086924705</v>
       </c>
       <c r="M26" t="n">
-        <v>0.003091558814048767</v>
+        <v>0.003088218199855504</v>
       </c>
       <c r="N26" t="n">
-        <v>0.05082377791404724</v>
+        <v>0.05033066604741736</v>
       </c>
       <c r="O26" t="n">
-        <v>0.001013174653053284</v>
+        <v>0.001099962025771896</v>
       </c>
       <c r="P26" t="n">
-        <v>0.0006315857172012329</v>
+        <v>0.0005759174991733243</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.02004097402095795</v>
+        <v>0.02017630568326977</v>
       </c>
       <c r="R26" t="n">
-        <v>0.01507103443145752</v>
+        <v>0.01392878628431246</v>
       </c>
       <c r="S26" t="n">
-        <v>0.01528181135654449</v>
+        <v>0.01833659911601175</v>
       </c>
       <c r="T26" t="n">
-        <v>0.005946874618530273</v>
+        <v>0.005596886088797163</v>
       </c>
       <c r="U26" t="n">
-        <v>-0.01375836133956909</v>
+        <v>-0.01473328549766534</v>
       </c>
     </row>
     <row r="27">
@@ -2171,64 +2171,64 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0008755326271057129</v>
+        <v>0.0003705374140103722</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.04054880142211914</v>
+        <v>-0.04277243619834738</v>
       </c>
       <c r="D27" t="n">
-        <v>0.004452347755432129</v>
+        <v>0.004673827499912047</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.04210883378982544</v>
+        <v>-0.03984373898615948</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.03820106387138367</v>
+        <v>-0.03610359791679171</v>
       </c>
       <c r="G27" t="n">
-        <v>0.005898743867874146</v>
+        <v>0.006743082655501335</v>
       </c>
       <c r="H27" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>-0.0009428665114545881</v>
       </c>
       <c r="I27" t="n">
-        <v>0.014814093708992</v>
+        <v>0.01432747714021853</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.03929674625396729</v>
+        <v>-0.03856400176670535</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.04056450724601746</v>
+        <v>-0.04130966301249417</v>
       </c>
       <c r="L27" t="n">
-        <v>0.06718325614929199</v>
+        <v>0.3336299063304241</v>
       </c>
       <c r="M27" t="n">
-        <v>0.003313705325126648</v>
+        <v>0.003427857098411983</v>
       </c>
       <c r="N27" t="n">
-        <v>0.02420997619628906</v>
+        <v>0.02670077596647497</v>
       </c>
       <c r="O27" t="n">
-        <v>0.0009981542825698853</v>
+        <v>0.001130344511497283</v>
       </c>
       <c r="P27" t="n">
-        <v>0.0005637854337692261</v>
+        <v>0.0004597502846355494</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.01995900273323059</v>
+        <v>0.02066754993359228</v>
       </c>
       <c r="R27" t="n">
-        <v>0.01456701755523682</v>
+        <v>0.01205928309991446</v>
       </c>
       <c r="S27" t="n">
-        <v>0.01958359777927399</v>
+        <v>0.01922761746027446</v>
       </c>
       <c r="T27" t="n">
-        <v>0.004479214549064636</v>
+        <v>0.00351924730547732</v>
       </c>
       <c r="U27" t="n">
-        <v>-0.04705566167831421</v>
+        <v>-0.04707751384062142</v>
       </c>
     </row>
     <row r="28">
@@ -2236,64 +2236,64 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.01767057180404663</v>
+        <v>0.01491744047068138</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.04536676406860352</v>
+        <v>-0.03999675511073739</v>
       </c>
       <c r="D28" t="n">
-        <v>0.004850775003433228</v>
+        <v>0.00505742035405876</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.03781655430793762</v>
+        <v>-0.03488035432046897</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.03675568103790283</v>
+        <v>-0.03261453131053767</v>
       </c>
       <c r="G28" t="n">
-        <v>0.00621497631072998</v>
+        <v>0.007135695518662989</v>
       </c>
       <c r="H28" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>0.003543140616210277</v>
       </c>
       <c r="I28" t="n">
-        <v>0.00763411819934845</v>
+        <v>0.00907610131549671</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.03977507352828979</v>
+        <v>-0.02896334593841317</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0321001410484314</v>
+        <v>-0.03690999189423687</v>
       </c>
       <c r="L28" t="n">
-        <v>0.07857401669025421</v>
+        <v>0.1930280983854375</v>
       </c>
       <c r="M28" t="n">
-        <v>0.003465548157691956</v>
+        <v>0.00310755453150168</v>
       </c>
       <c r="N28" t="n">
-        <v>0.021108478307724</v>
+        <v>0.01786525457706423</v>
       </c>
       <c r="O28" t="n">
-        <v>0.001022279262542725</v>
+        <v>0.001082781530607788</v>
       </c>
       <c r="P28" t="n">
-        <v>0.0006142705678939819</v>
+        <v>0.0006069931695480829</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.01895639300346375</v>
+        <v>0.01728982487632015</v>
       </c>
       <c r="R28" t="n">
-        <v>0.01473575830459595</v>
+        <v>0.01474744579034551</v>
       </c>
       <c r="S28" t="n">
-        <v>0.01840656995773315</v>
+        <v>0.0176442507368154</v>
       </c>
       <c r="T28" t="n">
-        <v>0.004999294877052307</v>
+        <v>0.005053182088460747</v>
       </c>
       <c r="U28" t="n">
-        <v>-0.03611046075820923</v>
+        <v>-0.03626414191099843</v>
       </c>
     </row>
     <row r="29">
@@ -2301,64 +2301,64 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>-2.467632293701172e-05</v>
+        <v>0.001219127907869034</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.02582007646560669</v>
+        <v>-0.02452954739147532</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0047016441822052</v>
+        <v>0.005072024381427244</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.03302359580993652</v>
+        <v>-0.03501420576300935</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.03459241986274719</v>
+        <v>-0.03035325957523848</v>
       </c>
       <c r="G29" t="n">
-        <v>0.007449537515640259</v>
+        <v>0.007206530855431771</v>
       </c>
       <c r="H29" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>0.0003032878080318631</v>
       </c>
       <c r="I29" t="n">
-        <v>0.01606877148151398</v>
+        <v>0.01294415833779188</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.02918139100074768</v>
+        <v>-0.02709774340369085</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.02881947159767151</v>
+        <v>-0.02460059822625566</v>
       </c>
       <c r="L29" t="n">
-        <v>0.106923907995224</v>
+        <v>0.05002366799074524</v>
       </c>
       <c r="M29" t="n">
-        <v>0.003416448831558228</v>
+        <v>0.003789429677443792</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.0104299783706665</v>
+        <v>-0.003922945069341348</v>
       </c>
       <c r="O29" t="n">
-        <v>0.0007579177618026733</v>
+        <v>0.0006537696860248096</v>
       </c>
       <c r="P29" t="n">
-        <v>0.0006129294633865356</v>
+        <v>0.0005635173735046556</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.009952902793884277</v>
+        <v>0.008734197169434896</v>
       </c>
       <c r="R29" t="n">
-        <v>0.01477381587028503</v>
+        <v>0.01191956326741015</v>
       </c>
       <c r="S29" t="n">
-        <v>0.01802697777748108</v>
+        <v>0.01728121606688884</v>
       </c>
       <c r="T29" t="n">
-        <v>0.005895853042602539</v>
+        <v>0.006183789307092281</v>
       </c>
       <c r="U29" t="n">
-        <v>-0.02948862314224243</v>
+        <v>-0.03382038923563437</v>
       </c>
     </row>
     <row r="30">
@@ -2366,64 +2366,64 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.01993422210216522</v>
+        <v>0.01919114282088917</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.04046279191970825</v>
+        <v>-0.04320154214776901</v>
       </c>
       <c r="D30" t="n">
-        <v>0.00470849871635437</v>
+        <v>0.004582106804534579</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.04433569312095642</v>
+        <v>-0.04274908864416137</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.03535079956054688</v>
+        <v>-0.03791236062809435</v>
       </c>
       <c r="G30" t="n">
-        <v>0.006519988179206848</v>
+        <v>0.00682771552933584</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1031405627727509</v>
+        <v>0.1002727873836479</v>
       </c>
       <c r="I30" t="n">
-        <v>0.01325289905071259</v>
+        <v>0.009025597418445594</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.03939202427864075</v>
+        <v>-0.03641582631069758</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.04087463021278381</v>
+        <v>-0.04243064281898332</v>
       </c>
       <c r="L30" t="n">
-        <v>0.08734996616840363</v>
+        <v>0.336729191538184</v>
       </c>
       <c r="M30" t="n">
-        <v>0.003755733370780945</v>
+        <v>0.003667570983948989</v>
       </c>
       <c r="N30" t="n">
-        <v>0.008016303181648254</v>
+        <v>0.009465657192153939</v>
       </c>
       <c r="O30" t="n">
-        <v>0.0008523464202880859</v>
+        <v>0.0008776947093249339</v>
       </c>
       <c r="P30" t="n">
-        <v>0.0005608052015304565</v>
+        <v>0.0004669060731345368</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.02284218370914459</v>
+        <v>0.02138253778810071</v>
       </c>
       <c r="R30" t="n">
-        <v>0.006783381104469299</v>
+        <v>0.007873983485789379</v>
       </c>
       <c r="S30" t="n">
-        <v>0.01306708157062531</v>
+        <v>0.01255215942335698</v>
       </c>
       <c r="T30" t="n">
-        <v>0.004743918776512146</v>
+        <v>0.00486818894099422</v>
       </c>
       <c r="U30" t="n">
-        <v>-0.04252707958221436</v>
+        <v>-0.04015503241598428</v>
       </c>
     </row>
     <row r="31">
@@ -2431,64 +2431,64 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01002523303031921</v>
+        <v>0.008286914777867763</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.02404561638832092</v>
+        <v>-0.02813018614173444</v>
       </c>
       <c r="D31" t="n">
-        <v>0.004572615027427673</v>
+        <v>0.004438090834630047</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.0235295295715332</v>
+        <v>-0.02204733082144673</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.01548680663108826</v>
+        <v>-0.02158596566155001</v>
       </c>
       <c r="G31" t="n">
-        <v>0.006309494376182556</v>
+        <v>0.00688701455497532</v>
       </c>
       <c r="H31" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>0.0005926253592246427</v>
       </c>
       <c r="I31" t="n">
-        <v>0.01167130470275879</v>
+        <v>0.01250776408419493</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.02341794967651367</v>
+        <v>-0.02289688080889246</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.026673823595047</v>
+        <v>-0.03044410033776504</v>
       </c>
       <c r="L31" t="n">
-        <v>1.001435160636902</v>
+        <v>0.7906034315998595</v>
       </c>
       <c r="M31" t="n">
-        <v>0.003542840480804443</v>
+        <v>0.003760589826108073</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.04300799965858459</v>
+        <v>-0.03860644976196529</v>
       </c>
       <c r="O31" t="n">
-        <v>0.001007914543151855</v>
+        <v>0.001065724133211316</v>
       </c>
       <c r="P31" t="n">
-        <v>0.0005811005830764771</v>
+        <v>0.0006115331541332418</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.01043683290481567</v>
+        <v>0.01106955228916174</v>
       </c>
       <c r="R31" t="n">
-        <v>0.01580946147441864</v>
+        <v>0.01347583579400592</v>
       </c>
       <c r="S31" t="n">
-        <v>0.01522079110145569</v>
+        <v>0.01446679378250902</v>
       </c>
       <c r="T31" t="n">
-        <v>0.00596870481967926</v>
+        <v>0.006007188422566638</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.01782867312431335</v>
+        <v>-0.01448020811305177</v>
       </c>
     </row>
     <row r="32">
@@ -2496,64 +2496,64 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.009934276342391968</v>
+        <v>-0.007238875579110085</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.03810575604438782</v>
+        <v>-0.04272926511029905</v>
       </c>
       <c r="D32" t="n">
-        <v>0.004493653774261475</v>
+        <v>0.004322963055523197</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.03982320427894592</v>
+        <v>-0.04149876881959748</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.0259978175163269</v>
+        <v>-0.03765513827221099</v>
       </c>
       <c r="G32" t="n">
-        <v>0.006032109260559082</v>
+        <v>0.006654015958793796</v>
       </c>
       <c r="H32" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>0.00167189647976886</v>
       </c>
       <c r="I32" t="n">
-        <v>0.01154251396656036</v>
+        <v>0.01133824636322671</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.02940860390663147</v>
+        <v>-0.03621257664994692</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.0436459481716156</v>
+        <v>-0.04360029050978011</v>
       </c>
       <c r="L32" t="n">
-        <v>0.1737280786037445</v>
+        <v>0.02807582172531181</v>
       </c>
       <c r="M32" t="n">
-        <v>0.002721190452575684</v>
+        <v>0.00274819734968726</v>
       </c>
       <c r="N32" t="n">
-        <v>0.01456615328788757</v>
+        <v>0.01736106931671569</v>
       </c>
       <c r="O32" t="n">
-        <v>0.0009001791477203369</v>
+        <v>0.0009291031547620401</v>
       </c>
       <c r="P32" t="n">
-        <v>0.0006129294633865356</v>
+        <v>0.0005259449858395845</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.009991392493247986</v>
+        <v>0.009997804217761311</v>
       </c>
       <c r="R32" t="n">
-        <v>0.007146254181861877</v>
+        <v>0.008439786792690853</v>
       </c>
       <c r="S32" t="n">
-        <v>0.01283189654350281</v>
+        <v>0.01213723510076254</v>
       </c>
       <c r="T32" t="n">
-        <v>0.005012571811676025</v>
+        <v>0.005423668297000322</v>
       </c>
       <c r="U32" t="n">
-        <v>-0.04224556684494019</v>
+        <v>-0.03973954937404725</v>
       </c>
     </row>
     <row r="33">
@@ -2561,64 +2561,64 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.007088392972946167</v>
+        <v>-0.01008233747100003</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.04165089130401611</v>
+        <v>-0.04233392025761355</v>
       </c>
       <c r="D33" t="n">
-        <v>0.004475504159927368</v>
+        <v>0.004672622392953214</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.04118126630783081</v>
+        <v>-0.03451408872470167</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.03335630893707275</v>
+        <v>-0.03763427246203577</v>
       </c>
       <c r="G33" t="n">
-        <v>0.005691260099411011</v>
+        <v>0.005210347138980822</v>
       </c>
       <c r="H33" t="n">
-        <v>-1.052021980285645e-05</v>
+        <v>-0.004433050151117247</v>
       </c>
       <c r="I33" t="n">
-        <v>0.01868686079978943</v>
+        <v>0.01416821983036424</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.03225317597389221</v>
+        <v>-0.03764803992740846</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.04202777147293091</v>
+        <v>-0.04454232354845725</v>
       </c>
       <c r="L33" t="n">
-        <v>0.1158740818500519</v>
+        <v>0.04724178095085536</v>
       </c>
       <c r="M33" t="n">
-        <v>0.00347466766834259</v>
+        <v>0.002866873952957946</v>
       </c>
       <c r="N33" t="n">
-        <v>0.007334619760513306</v>
+        <v>0.007875419530347863</v>
       </c>
       <c r="O33" t="n">
-        <v>0.0007900893688201904</v>
+        <v>0.0005709772741359837</v>
       </c>
       <c r="P33" t="n">
-        <v>0.0006302446126937866</v>
+        <v>0.0006067401820112905</v>
       </c>
       <c r="Q33" t="n">
-        <v>-0.01629284024238586</v>
+        <v>-0.02600272525708786</v>
       </c>
       <c r="R33" t="n">
-        <v>0.006947845220565796</v>
+        <v>0.006580214668388784</v>
       </c>
       <c r="S33" t="n">
-        <v>0.01306326687335968</v>
+        <v>0.01357518395106632</v>
       </c>
       <c r="T33" t="n">
-        <v>0.006056740880012512</v>
+        <v>0.006647137342012276</v>
       </c>
       <c r="U33" t="n">
-        <v>-0.03890109062194824</v>
+        <v>-0.02918941679882819</v>
       </c>
     </row>
     <row r="34">
@@ -2626,64 +2626,64 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.009536921977996826</v>
+        <v>-0.007577959337915799</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.01408261060714722</v>
+        <v>-0.01566700836158909</v>
       </c>
       <c r="D34" t="n">
-        <v>0.004575192928314209</v>
+        <v>0.004624706498277259</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.01621869206428528</v>
+        <v>-0.01441655560832941</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.01458403468132019</v>
+        <v>-0.01729521110126591</v>
       </c>
       <c r="G34" t="n">
-        <v>0.006996974349021912</v>
+        <v>0.007199006810730372</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1715731471776962</v>
+        <v>0.1435205180637815</v>
       </c>
       <c r="I34" t="n">
-        <v>0.01723919808864594</v>
+        <v>0.01217029826742551</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.0156787633895874</v>
+        <v>-0.01990582343318856</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.01625612378120422</v>
+        <v>-0.01892268460532243</v>
       </c>
       <c r="L34" t="n">
-        <v>1.618387699127197</v>
+        <v>1.700973638041723</v>
       </c>
       <c r="M34" t="n">
-        <v>0.003670632839202881</v>
+        <v>0.003776084878439935</v>
       </c>
       <c r="N34" t="n">
-        <v>0.05020251870155334</v>
+        <v>0.04928981652396829</v>
       </c>
       <c r="O34" t="n">
-        <v>0.0008023828268051147</v>
+        <v>0.0008213822603625389</v>
       </c>
       <c r="P34" t="n">
-        <v>0.0005811005830764771</v>
+        <v>0.0005132077388772551</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.01011094450950623</v>
+        <v>0.009259585793558185</v>
       </c>
       <c r="R34" t="n">
-        <v>0.008010044693946838</v>
+        <v>0.008302234366938161</v>
       </c>
       <c r="S34" t="n">
-        <v>0.01641800999641418</v>
+        <v>0.01542591599595821</v>
       </c>
       <c r="T34" t="n">
-        <v>0.003232240676879883</v>
+        <v>0.004028853580361493</v>
       </c>
       <c r="U34" t="n">
-        <v>-0.01628351211547852</v>
+        <v>-0.01329380467073487</v>
       </c>
     </row>
     <row r="35">
@@ -2691,64 +2691,64 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.01002199947834015</v>
+        <v>0.0101299898401011</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.0295407772064209</v>
+        <v>-0.03117089766993855</v>
       </c>
       <c r="D35" t="n">
-        <v>0.004405379295349121</v>
+        <v>0.004409278365302142</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.03898006677627563</v>
+        <v>-0.03802643080503978</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.02619829773902893</v>
+        <v>-0.02879358916540138</v>
       </c>
       <c r="G35" t="n">
-        <v>0.006189659237861633</v>
+        <v>0.006297509133457865</v>
       </c>
       <c r="H35" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>0.002410142955679395</v>
       </c>
       <c r="I35" t="n">
-        <v>0.01530161499977112</v>
+        <v>0.01481875147607149</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.0271124541759491</v>
+        <v>-0.02819680549220787</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.04564818739891052</v>
+        <v>-0.04240956524935385</v>
       </c>
       <c r="L35" t="n">
-        <v>0.1065618246793747</v>
+        <v>0.08263657425329442</v>
       </c>
       <c r="M35" t="n">
-        <v>0.003190204501152039</v>
+        <v>0.003192441989317264</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.007451191544532776</v>
+        <v>-0.002023524240513528</v>
       </c>
       <c r="O35" t="n">
-        <v>0.0008042603731155396</v>
+        <v>0.0007593505532653649</v>
       </c>
       <c r="P35" t="n">
-        <v>0.0005833655595779419</v>
+        <v>0.0004374320456925924</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.0199897438287735</v>
+        <v>0.01995272325578248</v>
       </c>
       <c r="R35" t="n">
-        <v>0.007212385535240173</v>
+        <v>0.006260346304595633</v>
       </c>
       <c r="S35" t="n">
-        <v>0.00978870689868927</v>
+        <v>0.01100093175979732</v>
       </c>
       <c r="T35" t="n">
-        <v>0.005062133073806763</v>
+        <v>0.005817867338342602</v>
       </c>
       <c r="U35" t="n">
-        <v>-0.0355696976184845</v>
+        <v>-0.03587688414519725</v>
       </c>
     </row>
     <row r="36">
@@ -2756,64 +2756,64 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.009906142950057983</v>
+        <v>-0.007747197801519227</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.03582105040550232</v>
+        <v>-0.03592150143811174</v>
       </c>
       <c r="D36" t="n">
-        <v>0.005120590329170227</v>
+        <v>0.004741992144307846</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.02227431535720825</v>
+        <v>-0.02659696205898576</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.03151914477348328</v>
+        <v>-0.03634074260991511</v>
       </c>
       <c r="G36" t="n">
-        <v>0.006585925817489624</v>
+        <v>0.007390835235598797</v>
       </c>
       <c r="H36" t="n">
-        <v>0.123441144824028</v>
+        <v>0.1234936248459225</v>
       </c>
       <c r="I36" t="n">
-        <v>0.01333360373973846</v>
+        <v>0.0130639998363342</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.02949818968772888</v>
+        <v>-0.0307338916033774</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.02865743637084961</v>
+        <v>-0.02711276103434124</v>
       </c>
       <c r="L36" t="n">
-        <v>0.1369686275720596</v>
+        <v>0.3553167194502485</v>
       </c>
       <c r="M36" t="n">
-        <v>0.003676369786262512</v>
+        <v>0.004236098300464376</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.02177378535270691</v>
+        <v>-0.01641629014935668</v>
       </c>
       <c r="O36" t="n">
-        <v>0.0008746534585952759</v>
+        <v>0.000893522784778909</v>
       </c>
       <c r="P36" t="n">
-        <v>0.000619351863861084</v>
+        <v>0.0005681293361080437</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.01104182004928589</v>
+        <v>0.01027111967330568</v>
       </c>
       <c r="R36" t="n">
-        <v>0.007155269384384155</v>
+        <v>0.00768847044409714</v>
       </c>
       <c r="S36" t="n">
-        <v>0.01383423805236816</v>
+        <v>0.01140998758400126</v>
       </c>
       <c r="T36" t="n">
-        <v>0.004067733883857727</v>
+        <v>0.004003523539320775</v>
       </c>
       <c r="U36" t="n">
-        <v>-0.02196633815765381</v>
+        <v>-0.02402753749302649</v>
       </c>
     </row>
     <row r="37">
@@ -2821,64 +2821,64 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.01985868811607361</v>
+        <v>0.01846667014160309</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.04452770948410034</v>
+        <v>-0.04868263733155841</v>
       </c>
       <c r="D37" t="n">
-        <v>0.004530742764472961</v>
+        <v>0.00436715761469319</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.03384506702423096</v>
+        <v>-0.04458622697773957</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.03871944546699524</v>
+        <v>-0.03773337821986531</v>
       </c>
       <c r="G37" t="n">
-        <v>0.007679879665374756</v>
+        <v>0.007049111858874491</v>
       </c>
       <c r="H37" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>0.002965875504760888</v>
       </c>
       <c r="I37" t="n">
-        <v>0.009706884622573853</v>
+        <v>0.01132273820460484</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.04346254467964172</v>
+        <v>-0.03982921568051973</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.04026910662651062</v>
+        <v>-0.04678803617376177</v>
       </c>
       <c r="L37" t="n">
-        <v>0.1325297206640244</v>
+        <v>-0.008627529351060809</v>
       </c>
       <c r="M37" t="n">
-        <v>0.003316164016723633</v>
+        <v>0.00341074925548313</v>
       </c>
       <c r="N37" t="n">
-        <v>0.001665666699409485</v>
+        <v>-0.004451090222557226</v>
       </c>
       <c r="O37" t="n">
-        <v>0.0008434653282165527</v>
+        <v>0.0008383978407497143</v>
       </c>
       <c r="P37" t="n">
-        <v>0.0005833655595779419</v>
+        <v>0.0005359345058333155</v>
       </c>
       <c r="Q37" t="n">
-        <v>-0.01965036988258362</v>
+        <v>-0.02176963663393085</v>
       </c>
       <c r="R37" t="n">
-        <v>0.006679147481918335</v>
+        <v>0.007922675951899173</v>
       </c>
       <c r="S37" t="n">
-        <v>0.01212716102600098</v>
+        <v>0.01058385143031012</v>
       </c>
       <c r="T37" t="n">
-        <v>0.005394890904426575</v>
+        <v>0.005114609639730545</v>
       </c>
       <c r="U37" t="n">
-        <v>-0.04257896542549133</v>
+        <v>-0.04112893507979815</v>
       </c>
     </row>
     <row r="38">
@@ -2886,64 +2886,64 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.01071709394454956</v>
+        <v>-0.01151723414105576</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.01908841729164124</v>
+        <v>-0.02123097555236929</v>
       </c>
       <c r="D38" t="n">
-        <v>0.004737600684165955</v>
+        <v>0.004522096980793164</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.02188596129417419</v>
+        <v>-0.01804326366411331</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.0229189395904541</v>
+        <v>-0.01536118958178278</v>
       </c>
       <c r="G38" t="n">
-        <v>0.006210207939147949</v>
+        <v>0.006025152986783834</v>
       </c>
       <c r="H38" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>-0.001441217541607474</v>
       </c>
       <c r="I38" t="n">
-        <v>0.01104544103145599</v>
+        <v>0.01471894687792152</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.02315637469291687</v>
+        <v>-0.02408359371259964</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.01952210068702698</v>
+        <v>-0.02159071932146683</v>
       </c>
       <c r="L38" t="n">
-        <v>1.777025938034058</v>
+        <v>2.007445522236439</v>
       </c>
       <c r="M38" t="n">
-        <v>0.003291845321655273</v>
+        <v>0.003591920592754619</v>
       </c>
       <c r="N38" t="n">
-        <v>0.04933057725429535</v>
+        <v>0.052220849942178</v>
       </c>
       <c r="O38" t="n">
-        <v>0.0008039027452468872</v>
+        <v>0.0006547642775728048</v>
       </c>
       <c r="P38" t="n">
-        <v>0.0005811005830764771</v>
+        <v>0.0004765072909818787</v>
       </c>
       <c r="Q38" t="n">
-        <v>-0.02228721976280212</v>
+        <v>-0.01276076510751252</v>
       </c>
       <c r="R38" t="n">
-        <v>0.007771909236907959</v>
+        <v>0.007988841595723538</v>
       </c>
       <c r="S38" t="n">
-        <v>0.0158156156539917</v>
+        <v>0.01690875136609809</v>
       </c>
       <c r="T38" t="n">
-        <v>0.006304726004600525</v>
+        <v>0.006653578768044979</v>
       </c>
       <c r="U38" t="n">
-        <v>-0.01522359251976013</v>
+        <v>-0.01479487565550633</v>
       </c>
     </row>
     <row r="39">
@@ -2951,64 +2951,64 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.01387545466423035</v>
+        <v>-0.01136052209802176</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.03824430704116821</v>
+        <v>-0.03137727715772439</v>
       </c>
       <c r="D39" t="n">
-        <v>0.004716455936431885</v>
+        <v>0.00489154563521161</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.02624988555908203</v>
+        <v>-0.02457268238068919</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.03687939047813416</v>
+        <v>-0.02389920142747688</v>
       </c>
       <c r="G39" t="n">
-        <v>0.006768330931663513</v>
+        <v>0.005881179142623557</v>
       </c>
       <c r="H39" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>-0.000781721797186741</v>
       </c>
       <c r="I39" t="n">
-        <v>0.01505754888057709</v>
+        <v>0.01381826163761573</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.03515201807022095</v>
+        <v>-0.02082916264157934</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.0243610143661499</v>
+        <v>-0.0223259814104022</v>
       </c>
       <c r="L39" t="n">
-        <v>0.2079803049564362</v>
+        <v>0.2538325363535253</v>
       </c>
       <c r="M39" t="n">
-        <v>0.003362074494361877</v>
+        <v>0.003559512064840863</v>
       </c>
       <c r="N39" t="n">
-        <v>0.005444824695587158</v>
+        <v>0.007056834330835512</v>
       </c>
       <c r="O39" t="n">
-        <v>0.0009470582008361816</v>
+        <v>0.001025269903660917</v>
       </c>
       <c r="P39" t="n">
-        <v>0.0005637854337692261</v>
+        <v>0.0004820685563353832</v>
       </c>
       <c r="Q39" t="n">
-        <v>-0.03731977939605713</v>
+        <v>-0.01965254807665157</v>
       </c>
       <c r="R39" t="n">
-        <v>0.01037105917930603</v>
+        <v>0.00939624382179243</v>
       </c>
       <c r="S39" t="n">
-        <v>0.01244743168354034</v>
+        <v>0.01237587386193332</v>
       </c>
       <c r="T39" t="n">
-        <v>0.005841478705406189</v>
+        <v>0.006469258929392302</v>
       </c>
       <c r="U39" t="n">
-        <v>-0.02313002943992615</v>
+        <v>-0.01986149448111109</v>
       </c>
     </row>
     <row r="40">
@@ -3016,64 +3016,64 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.01151517033576965</v>
+        <v>0.00980532561135446</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.0211634635925293</v>
+        <v>-0.02197992622772048</v>
       </c>
       <c r="D40" t="n">
-        <v>0.004638299345970154</v>
+        <v>0.004890371187687289</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.01609978079795837</v>
+        <v>-0.01824144755331509</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.01772657036781311</v>
+        <v>-0.01912020406365568</v>
       </c>
       <c r="G40" t="n">
-        <v>0.005916416645050049</v>
+        <v>0.006098605462494279</v>
       </c>
       <c r="H40" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>-0.0006507184351377904</v>
       </c>
       <c r="I40" t="n">
-        <v>0.01288527250289917</v>
+        <v>0.01193417028769385</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.02099817991256714</v>
+        <v>-0.02217487380209154</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.01564386487007141</v>
+        <v>-0.02140284748319701</v>
       </c>
       <c r="L40" t="n">
-        <v>1.076157212257385</v>
+        <v>0.9309818950621422</v>
       </c>
       <c r="M40" t="n">
-        <v>0.003275349736213684</v>
+        <v>0.003151050599824546</v>
       </c>
       <c r="N40" t="n">
-        <v>0.049382284283638</v>
+        <v>0.05199266116497891</v>
       </c>
       <c r="O40" t="n">
-        <v>0.0007667243480682373</v>
+        <v>0.0004959657907147781</v>
       </c>
       <c r="P40" t="n">
-        <v>0.0006302446126937866</v>
+        <v>0.0006001323846598987</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.01006568968296051</v>
+        <v>0.01112711163292099</v>
       </c>
       <c r="R40" t="n">
-        <v>0.01839718222618103</v>
+        <v>0.01815744715093413</v>
       </c>
       <c r="S40" t="n">
-        <v>0.0219980776309967</v>
+        <v>0.02182676003980318</v>
       </c>
       <c r="T40" t="n">
-        <v>0.004135265946388245</v>
+        <v>0.004063706908980259</v>
       </c>
       <c r="U40" t="n">
-        <v>-0.01486673951148987</v>
+        <v>-0.01287058407964577</v>
       </c>
     </row>
     <row r="41">
@@ -3081,64 +3081,64 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.01025140285491943</v>
+        <v>-0.01282555190482654</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.04561126232147217</v>
+        <v>-0.04515185900511964</v>
       </c>
       <c r="D41" t="n">
-        <v>0.00456663966178894</v>
+        <v>0.004314731753735733</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.04141929745674133</v>
+        <v>-0.04146530652721337</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.04205283522605896</v>
+        <v>-0.03544102048258294</v>
       </c>
       <c r="G41" t="n">
-        <v>0.007946908473968506</v>
+        <v>0.007837583105862076</v>
       </c>
       <c r="H41" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>0.001661177471228882</v>
       </c>
       <c r="I41" t="n">
-        <v>0.005949661135673523</v>
+        <v>0.007120656243493649</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.03993228077888489</v>
+        <v>-0.03636514579701981</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.04545584321022034</v>
+        <v>-0.04768168306194827</v>
       </c>
       <c r="L41" t="n">
-        <v>0.2182660847902298</v>
+        <v>0.5194869479534936</v>
       </c>
       <c r="M41" t="n">
-        <v>0.003139331936836243</v>
+        <v>0.003075515746002008</v>
       </c>
       <c r="N41" t="n">
-        <v>0.01266378164291382</v>
+        <v>0.01458316869801198</v>
       </c>
       <c r="O41" t="n">
-        <v>0.0007809102535247803</v>
+        <v>0.0006866396035770425</v>
       </c>
       <c r="P41" t="n">
-        <v>0.0005637854337692261</v>
+        <v>0.0004899170799364652</v>
       </c>
       <c r="Q41" t="n">
-        <v>-0.01985001564025879</v>
+        <v>-0.01919823103274744</v>
       </c>
       <c r="R41" t="n">
-        <v>0.006228253245353699</v>
+        <v>0.0088553485644724</v>
       </c>
       <c r="S41" t="n">
-        <v>0.0104697048664093</v>
+        <v>0.01299081408749077</v>
       </c>
       <c r="T41" t="n">
-        <v>0.005730733275413513</v>
+        <v>0.005455025760950988</v>
       </c>
       <c r="U41" t="n">
-        <v>-0.03979524970054626</v>
+        <v>-0.03775037227104415</v>
       </c>
     </row>
     <row r="42">
@@ -3146,64 +3146,64 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.01002523303031921</v>
+        <v>0.009519772062429935</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.02043667435646057</v>
+        <v>-0.02083924202517533</v>
       </c>
       <c r="D42" t="n">
-        <v>0.005475953221321106</v>
+        <v>0.004516926819829676</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.01809090375900269</v>
+        <v>-0.01286264356008254</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.01746243238449097</v>
+        <v>-0.01981556443138286</v>
       </c>
       <c r="G42" t="n">
-        <v>0.006408393383026123</v>
+        <v>0.00624632303130234</v>
       </c>
       <c r="H42" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>9.898972861014583e-05</v>
       </c>
       <c r="I42" t="n">
-        <v>0.009231239557266235</v>
+        <v>0.007810070414009044</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.01784506440162659</v>
+        <v>-0.01592922767488556</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.01858720183372498</v>
+        <v>-0.02097670047719251</v>
       </c>
       <c r="L42" t="n">
-        <v>1.974000453948975</v>
+        <v>1.759232489965488</v>
       </c>
       <c r="M42" t="n">
-        <v>0.003247484564781189</v>
+        <v>0.003189667825455438</v>
       </c>
       <c r="N42" t="n">
-        <v>0.01755756139755249</v>
+        <v>0.007511166026619549</v>
       </c>
       <c r="O42" t="n">
-        <v>0.0007938593626022339</v>
+        <v>0.0007627010025815353</v>
       </c>
       <c r="P42" t="n">
-        <v>0.0006315857172012329</v>
+        <v>0.000614119097429098</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.007694751024246216</v>
+        <v>0.010645005956624</v>
       </c>
       <c r="R42" t="n">
-        <v>0.01062761247158051</v>
+        <v>0.009613887812447756</v>
       </c>
       <c r="S42" t="n">
-        <v>0.01421049237251282</v>
+        <v>0.01499447665013086</v>
       </c>
       <c r="T42" t="n">
-        <v>0.004760980606079102</v>
+        <v>0.005025437796119327</v>
       </c>
       <c r="U42" t="n">
-        <v>-0.01596260070800781</v>
+        <v>-0.01870370600561353</v>
       </c>
     </row>
     <row r="43">
@@ -3211,64 +3211,64 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.01998457312583923</v>
+        <v>-0.01968913510527881</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.03429681062698364</v>
+        <v>-0.03183565000531005</v>
       </c>
       <c r="D43" t="n">
-        <v>0.00454595685005188</v>
+        <v>0.004266482803226912</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.03938126564025879</v>
+        <v>-0.03954679229105586</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.02800673246383667</v>
+        <v>-0.02621901223904453</v>
       </c>
       <c r="G43" t="n">
-        <v>0.006820186972618103</v>
+        <v>0.006265907298005175</v>
       </c>
       <c r="H43" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>0.0008201721261136094</v>
       </c>
       <c r="I43" t="n">
-        <v>0.009915530681610107</v>
+        <v>0.009818595375460443</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.03271958231925964</v>
+        <v>-0.03049210842228584</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.04444712400436401</v>
+        <v>-0.04019873679306057</v>
       </c>
       <c r="L43" t="n">
-        <v>1.04197096824646</v>
+        <v>0.523342306527693</v>
       </c>
       <c r="M43" t="n">
-        <v>0.003307610750198364</v>
+        <v>0.002956228215480091</v>
       </c>
       <c r="N43" t="n">
-        <v>0.008600875735282898</v>
+        <v>0.0002085802312907941</v>
       </c>
       <c r="O43" t="n">
-        <v>0.0009720176458358765</v>
+        <v>0.001096488650309385</v>
       </c>
       <c r="P43" t="n">
-        <v>0.0005808323621749878</v>
+        <v>0.0005191141827375241</v>
       </c>
       <c r="Q43" t="n">
-        <v>-0.008781731128692627</v>
+        <v>-0.007727300947924348</v>
       </c>
       <c r="R43" t="n">
-        <v>0.01464320719242096</v>
+        <v>0.01527953623639445</v>
       </c>
       <c r="S43" t="n">
-        <v>0.01793175935745239</v>
+        <v>0.01638409938581773</v>
       </c>
       <c r="T43" t="n">
-        <v>0.005321890115737915</v>
+        <v>0.005789892431507636</v>
       </c>
       <c r="U43" t="n">
-        <v>-0.04210355877876282</v>
+        <v>-0.04071653045892032</v>
       </c>
     </row>
     <row r="44">
@@ -3276,64 +3276,64 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.02070236206054688</v>
+        <v>-0.02218817939208807</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.02981671690940857</v>
+        <v>-0.02985743725116331</v>
       </c>
       <c r="D44" t="n">
-        <v>0.004574120044708252</v>
+        <v>0.004563491765050629</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.02327901124954224</v>
+        <v>-0.02858490243558546</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.02420833706855774</v>
+        <v>-0.02548943336753373</v>
       </c>
       <c r="G44" t="n">
-        <v>0.007426723837852478</v>
+        <v>0.007638337472179502</v>
       </c>
       <c r="H44" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>-0.0006416121768489969</v>
       </c>
       <c r="I44" t="n">
-        <v>0.01337119936943054</v>
+        <v>0.01338192301986267</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.02156892418861389</v>
+        <v>-0.02181557327018445</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.02309805154800415</v>
+        <v>-0.02288602227305687</v>
       </c>
       <c r="L44" t="n">
-        <v>0.1045666337013245</v>
+        <v>0.03575330409877649</v>
       </c>
       <c r="M44" t="n">
-        <v>0.003021478652954102</v>
+        <v>0.002586803921239997</v>
       </c>
       <c r="N44" t="n">
-        <v>0.03363873064517975</v>
+        <v>0.01355488195396354</v>
       </c>
       <c r="O44" t="n">
-        <v>0.0007926970720291138</v>
+        <v>0.0006655557480532921</v>
       </c>
       <c r="P44" t="n">
-        <v>0.0005825161933898926</v>
+        <v>0.0004688579035580377</v>
       </c>
       <c r="Q44" t="n">
-        <v>-0.01033291220664978</v>
+        <v>-0.01522633704014315</v>
       </c>
       <c r="R44" t="n">
-        <v>0.007908165454864502</v>
+        <v>0.007029172643491431</v>
       </c>
       <c r="S44" t="n">
-        <v>0.01313349604606628</v>
+        <v>0.01360005991835762</v>
       </c>
       <c r="T44" t="n">
-        <v>0.00525277853012085</v>
+        <v>0.005740494604092016</v>
       </c>
       <c r="U44" t="n">
-        <v>-0.01813399791717529</v>
+        <v>-0.02603861249706847</v>
       </c>
     </row>
     <row r="45">
@@ -3341,64 +3341,64 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.01689106225967407</v>
+        <v>-0.01742772579946639</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.04483324289321899</v>
+        <v>-0.03678989978941331</v>
       </c>
       <c r="D45" t="n">
-        <v>0.004753515124320984</v>
+        <v>0.004815205639081774</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.02897554636001587</v>
+        <v>-0.03699435903106028</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.03749120235443115</v>
+        <v>-0.03572149900890329</v>
       </c>
       <c r="G45" t="n">
-        <v>0.006933808326721191</v>
+        <v>0.005675264611734819</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0003404021263122559</v>
+        <v>0.001243625910514716</v>
       </c>
       <c r="I45" t="n">
-        <v>0.01280413568019867</v>
+        <v>0.01023456208128976</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.03831103444099426</v>
+        <v>-0.04150876548474214</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.04208707809448242</v>
+        <v>-0.04257981484647703</v>
       </c>
       <c r="L45" t="n">
-        <v>0.06814837455749512</v>
+        <v>0.1460701453599794</v>
       </c>
       <c r="M45" t="n">
-        <v>0.003148123621940613</v>
+        <v>0.003431615248983725</v>
       </c>
       <c r="N45" t="n">
-        <v>0.01406767964363098</v>
+        <v>0.009466143982602497</v>
       </c>
       <c r="O45" t="n">
-        <v>0.001042366027832031</v>
+        <v>0.001065111161755074</v>
       </c>
       <c r="P45" t="n">
-        <v>0.0008777827024459839</v>
+        <v>0.0008444691756239929</v>
       </c>
       <c r="Q45" t="n">
-        <v>-0.03194540739059448</v>
+        <v>-0.0190125757290306</v>
       </c>
       <c r="R45" t="n">
-        <v>0.008916959166526794</v>
+        <v>0.009754829050983727</v>
       </c>
       <c r="S45" t="n">
-        <v>0.01671960949897766</v>
+        <v>0.01503994125341031</v>
       </c>
       <c r="T45" t="n">
-        <v>0.007010892033576965</v>
+        <v>0.006181540388963541</v>
       </c>
       <c r="U45" t="n">
-        <v>-0.03150784969329834</v>
+        <v>-0.03749388155152359</v>
       </c>
     </row>
     <row r="46">
@@ -3406,64 +3406,64 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.02053429186344147</v>
+        <v>0.0190216002979061</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.01459816098213196</v>
+        <v>-0.01592588308281463</v>
       </c>
       <c r="D46" t="n">
-        <v>0.004602104425430298</v>
+        <v>0.004641449812663255</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.01620292663574219</v>
+        <v>-0.01483265790634202</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.01271888613700867</v>
+        <v>-0.01405560945546865</v>
       </c>
       <c r="G46" t="n">
-        <v>0.007250398397445679</v>
+        <v>0.006345272716939227</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0003404021263122559</v>
+        <v>-0.0008926690242577999</v>
       </c>
       <c r="I46" t="n">
-        <v>0.006023064255714417</v>
+        <v>0.005254561767810235</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.01174122095108032</v>
+        <v>-0.01165920520336711</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.01057741045951843</v>
+        <v>-0.01394900493187327</v>
       </c>
       <c r="L46" t="n">
-        <v>1.056619167327881</v>
+        <v>0.9988793983288116</v>
       </c>
       <c r="M46" t="n">
-        <v>0.003218263387680054</v>
+        <v>0.003329467610867281</v>
       </c>
       <c r="N46" t="n">
-        <v>0.05002211034297943</v>
+        <v>0.04894823759481672</v>
       </c>
       <c r="O46" t="n">
-        <v>0.0009268224239349365</v>
+        <v>0.000882350911287916</v>
       </c>
       <c r="P46" t="n">
-        <v>0.0005635172128677368</v>
+        <v>0.0004698231990416423</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.01006568968296051</v>
+        <v>0.01148847870659457</v>
       </c>
       <c r="R46" t="n">
-        <v>0.007498174905776978</v>
+        <v>0.006655035755805752</v>
       </c>
       <c r="S46" t="n">
-        <v>0.01740479469299316</v>
+        <v>0.01324170922672362</v>
       </c>
       <c r="T46" t="n">
-        <v>0.004748597741127014</v>
+        <v>0.005178305617306157</v>
       </c>
       <c r="U46" t="n">
-        <v>-0.0169505774974823</v>
+        <v>-0.01431071366794806</v>
       </c>
     </row>
     <row r="47">
@@ -3471,64 +3471,64 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>2.014636993408203e-05</v>
+        <v>-0.004206651100220993</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.0322628915309906</v>
+        <v>-0.03303339254594023</v>
       </c>
       <c r="D47" t="n">
-        <v>0.004436224699020386</v>
+        <v>0.004766499466987795</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.04075589776039124</v>
+        <v>-0.04377476598117909</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.02996614575386047</v>
+        <v>-0.03184671873651011</v>
       </c>
       <c r="G47" t="n">
-        <v>0.005937322974205017</v>
+        <v>0.005969334257469593</v>
       </c>
       <c r="H47" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>-0.0007688993433445266</v>
       </c>
       <c r="I47" t="n">
-        <v>0.01398532092571259</v>
+        <v>0.0127298457749687</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.03156003355979919</v>
+        <v>-0.02845624752827141</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.03381812572479248</v>
+        <v>-0.0349929283462049</v>
       </c>
       <c r="L47" t="n">
-        <v>1.401422023773193</v>
+        <v>0.9389023583750298</v>
       </c>
       <c r="M47" t="n">
-        <v>0.003677845001220703</v>
+        <v>0.00341977739172207</v>
       </c>
       <c r="N47" t="n">
-        <v>-0.0001450031995773315</v>
+        <v>-0.0001064380262430244</v>
       </c>
       <c r="O47" t="n">
-        <v>0.0008794218301773071</v>
+        <v>0.00088245813750238</v>
       </c>
       <c r="P47" t="n">
-        <v>0.0005637854337692261</v>
+        <v>0.0003968958455703086</v>
       </c>
       <c r="Q47" t="n">
-        <v>-0.0285876989364624</v>
+        <v>-0.01370567577726222</v>
       </c>
       <c r="R47" t="n">
-        <v>0.007799357175827026</v>
+        <v>0.007924505336834319</v>
       </c>
       <c r="S47" t="n">
-        <v>0.01364243030548096</v>
+        <v>0.01334301865521375</v>
       </c>
       <c r="T47" t="n">
-        <v>0.005798950791358948</v>
+        <v>0.005904749189862988</v>
       </c>
       <c r="U47" t="n">
-        <v>-0.04277417063713074</v>
+        <v>-0.03914154123841097</v>
       </c>
     </row>
     <row r="48">
@@ -3536,64 +3536,64 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>-2.688169479370117e-05</v>
+        <v>0.0007952919960984345</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.04084724187850952</v>
+        <v>-0.0399878449184255</v>
       </c>
       <c r="D48" t="n">
-        <v>0.004569590091705322</v>
+        <v>0.004396665229099107</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.03983351588249207</v>
+        <v>-0.04527671866890295</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.04569166898727417</v>
+        <v>-0.04243123465223038</v>
       </c>
       <c r="G48" t="n">
-        <v>0.006180062890052795</v>
+        <v>0.007210021764759038</v>
       </c>
       <c r="H48" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>0.002393485235715605</v>
       </c>
       <c r="I48" t="n">
-        <v>0.01476591825485229</v>
+        <v>0.01801410799914593</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.04112523794174194</v>
+        <v>-0.03800336647339896</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.04370748996734619</v>
+        <v>-0.04686609242094809</v>
       </c>
       <c r="L48" t="n">
-        <v>0.1101661771535873</v>
+        <v>0.006658286033844138</v>
       </c>
       <c r="M48" t="n">
-        <v>0.00303986668586731</v>
+        <v>0.003414879953398395</v>
       </c>
       <c r="N48" t="n">
-        <v>0.02336511015892029</v>
+        <v>0.02104933850445034</v>
       </c>
       <c r="O48" t="n">
-        <v>0.001004874706268311</v>
+        <v>0.001027540637580076</v>
       </c>
       <c r="P48" t="n">
-        <v>0.0005635172128677368</v>
+        <v>0.0004851349794027922</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.02025426924228668</v>
+        <v>0.02079291539604716</v>
       </c>
       <c r="R48" t="n">
-        <v>0.0105837881565094</v>
+        <v>0.009324255814720298</v>
       </c>
       <c r="S48" t="n">
-        <v>0.01275822520256042</v>
+        <v>0.01581791138229192</v>
       </c>
       <c r="T48" t="n">
-        <v>0.005210280418395996</v>
+        <v>0.00492887431881001</v>
       </c>
       <c r="U48" t="n">
-        <v>-0.04581603407859802</v>
+        <v>-0.04641754250897048</v>
       </c>
     </row>
     <row r="49">
@@ -3601,64 +3601,64 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.005400955677032471</v>
+        <v>0.009595273589424946</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.01230880618095398</v>
+        <v>-0.01459769393035757</v>
       </c>
       <c r="D49" t="n">
-        <v>0.004662796854972839</v>
+        <v>0.00466242677535544</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.01645553112030029</v>
+        <v>-0.01879596028622088</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.01611238718032837</v>
+        <v>-0.01305101091145082</v>
       </c>
       <c r="G49" t="n">
-        <v>0.006569549441337585</v>
+        <v>0.006188799305100616</v>
       </c>
       <c r="H49" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>-0.0005196535578001004</v>
       </c>
       <c r="I49" t="n">
-        <v>0.003828838467597961</v>
+        <v>0.005449780599345804</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.01567885279655457</v>
+        <v>-0.01524062277880085</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.01784053444862366</v>
+        <v>-0.01721815173232745</v>
       </c>
       <c r="L49" t="n">
-        <v>1.327337503433228</v>
+        <v>1.281608345140615</v>
       </c>
       <c r="M49" t="n">
-        <v>0.003497183322906494</v>
+        <v>0.003222505905973716</v>
       </c>
       <c r="N49" t="n">
-        <v>0.01029512286186218</v>
+        <v>0.002141635743138019</v>
       </c>
       <c r="O49" t="n">
-        <v>0.0009668469429016113</v>
+        <v>0.001052663572045079</v>
       </c>
       <c r="P49" t="n">
-        <v>0.0005811005830764771</v>
+        <v>0.0005911708282089095</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.01743084192276001</v>
+        <v>0.01672492923848302</v>
       </c>
       <c r="R49" t="n">
-        <v>0.007671058177947998</v>
+        <v>0.008525318907919353</v>
       </c>
       <c r="S49" t="n">
-        <v>0.01372361183166504</v>
+        <v>0.01454931582545672</v>
       </c>
       <c r="T49" t="n">
-        <v>0.004143863916397095</v>
+        <v>0.004189125805458559</v>
       </c>
       <c r="U49" t="n">
-        <v>-0.01288020610809326</v>
+        <v>-0.01586321717189406</v>
       </c>
     </row>
     <row r="50">
@@ -3666,64 +3666,64 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.009896501898765564</v>
+        <v>0.009769569483262342</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.04466596245765686</v>
+        <v>-0.05015662062561178</v>
       </c>
       <c r="D50" t="n">
-        <v>0.004461541771888733</v>
+        <v>0.00477091935226894</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.04082897305488586</v>
+        <v>-0.04658977877068193</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.03986945748329163</v>
+        <v>-0.04469753709158873</v>
       </c>
       <c r="G50" t="n">
-        <v>0.007002770900726318</v>
+        <v>0.006513008187749293</v>
       </c>
       <c r="H50" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>0.002033589004121726</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0109194815158844</v>
+        <v>0.01074882941141124</v>
       </c>
       <c r="J50" t="n">
-        <v>-0.03963825106620789</v>
+        <v>-0.04424895300563564</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.04245966672897339</v>
+        <v>-0.0403973807101167</v>
       </c>
       <c r="L50" t="n">
-        <v>0.1132793128490448</v>
+        <v>0.1800961659253439</v>
       </c>
       <c r="M50" t="n">
-        <v>0.003270700573921204</v>
+        <v>0.002965712232635401</v>
       </c>
       <c r="N50" t="n">
-        <v>0.009029760956764221</v>
+        <v>0.01452937902190058</v>
       </c>
       <c r="O50" t="n">
-        <v>0.0008870214223861694</v>
+        <v>0.0008635582259444506</v>
       </c>
       <c r="P50" t="n">
-        <v>0.0006302446126937866</v>
+        <v>0.0006352806981975781</v>
       </c>
       <c r="Q50" t="n">
-        <v>-0.01953285932540894</v>
+        <v>-0.01918732398476146</v>
       </c>
       <c r="R50" t="n">
-        <v>0.01785777509212494</v>
+        <v>0.01495014234749787</v>
       </c>
       <c r="S50" t="n">
-        <v>0.01858067512512207</v>
+        <v>0.02042630292049863</v>
       </c>
       <c r="T50" t="n">
-        <v>0.004705414175987244</v>
+        <v>0.004558164901724275</v>
       </c>
       <c r="U50" t="n">
-        <v>-0.04267138242721558</v>
+        <v>-0.04039807833329428</v>
       </c>
     </row>
     <row r="51">
@@ -3731,64 +3731,64 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.01023977994918823</v>
+        <v>-0.01026114173523254</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.03694465756416321</v>
+        <v>-0.03217105752926559</v>
       </c>
       <c r="D51" t="n">
-        <v>0.004594877362251282</v>
+        <v>0.004518991811605834</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.03198468685150146</v>
+        <v>-0.03249872863649327</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.04539316892623901</v>
+        <v>-0.03630893530390152</v>
       </c>
       <c r="G51" t="n">
-        <v>0.006655126810073853</v>
+        <v>0.006237779979917374</v>
       </c>
       <c r="H51" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>0.0001827344373356929</v>
       </c>
       <c r="I51" t="n">
-        <v>0.01906365156173706</v>
+        <v>0.01543299003360373</v>
       </c>
       <c r="J51" t="n">
-        <v>-0.03988975286483765</v>
+        <v>-0.03283022226244843</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.02275639772415161</v>
+        <v>-0.02133128889812736</v>
       </c>
       <c r="L51" t="n">
-        <v>0.236428827047348</v>
+        <v>0.1336422111315856</v>
       </c>
       <c r="M51" t="n">
-        <v>0.003308102488517761</v>
+        <v>0.003225621945230773</v>
       </c>
       <c r="N51" t="n">
-        <v>0.02201114594936371</v>
+        <v>0.01689858850348446</v>
       </c>
       <c r="O51" t="n">
-        <v>0.0008411705493927002</v>
+        <v>0.0008934788850730888</v>
       </c>
       <c r="P51" t="n">
-        <v>0.0006129294633865356</v>
+        <v>0.0005648573178867336</v>
       </c>
       <c r="Q51" t="n">
-        <v>-0.01006001234054565</v>
+        <v>-0.008812795832645572</v>
       </c>
       <c r="R51" t="n">
-        <v>0.008304744958877563</v>
+        <v>0.009654221890581436</v>
       </c>
       <c r="S51" t="n">
-        <v>0.01303714513778687</v>
+        <v>0.01321673974611907</v>
       </c>
       <c r="T51" t="n">
-        <v>0.005317732691764832</v>
+        <v>0.004676006248982005</v>
       </c>
       <c r="U51" t="n">
-        <v>-0.0334797203540802</v>
+        <v>-0.0313450674804039</v>
       </c>
     </row>
     <row r="52">
@@ -3796,64 +3796,64 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0.007291838526725769</v>
+        <v>0.01212862243619873</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.01956334710121155</v>
+        <v>-0.01960460063675989</v>
       </c>
       <c r="D52" t="n">
-        <v>0.004680797457695007</v>
+        <v>0.004655482097463204</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.0261366069316864</v>
+        <v>-0.02680920586502826</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.01824688911437988</v>
+        <v>-0.01800592777160144</v>
       </c>
       <c r="G52" t="n">
-        <v>0.005438625812530518</v>
+        <v>0.005997274579053671</v>
       </c>
       <c r="H52" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>0.001068810694213741</v>
       </c>
       <c r="I52" t="n">
-        <v>0.01634871959686279</v>
+        <v>0.01489488947476795</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.02305418252944946</v>
+        <v>-0.02193956517885646</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.0306050181388855</v>
+        <v>-0.0321736317429098</v>
       </c>
       <c r="L52" t="n">
-        <v>1.7042396068573</v>
+        <v>1.52381336232582</v>
       </c>
       <c r="M52" t="n">
-        <v>0.003411576151847839</v>
+        <v>0.004060476926420714</v>
       </c>
       <c r="N52" t="n">
-        <v>0.0534733384847641</v>
+        <v>0.04906512797625925</v>
       </c>
       <c r="O52" t="n">
-        <v>0.0009465962648391724</v>
+        <v>0.001001105058048806</v>
       </c>
       <c r="P52" t="n">
-        <v>0.0005637854337692261</v>
+        <v>0.0004927449868551099</v>
       </c>
       <c r="Q52" t="n">
-        <v>-0.009599447250366211</v>
+        <v>-0.008810693663648785</v>
       </c>
       <c r="R52" t="n">
-        <v>0.007734984159469604</v>
+        <v>0.007038232437740682</v>
       </c>
       <c r="S52" t="n">
-        <v>0.01479132473468781</v>
+        <v>0.01487622084830804</v>
       </c>
       <c r="T52" t="n">
-        <v>0.004252955317497253</v>
+        <v>0.004171919322900791</v>
       </c>
       <c r="U52" t="n">
-        <v>-0.02800950407981873</v>
+        <v>-0.02978534462873391</v>
       </c>
     </row>
     <row r="53">
@@ -3861,64 +3861,64 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0.009996533393859863</v>
+        <v>0.00684287050336424</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.0361143946647644</v>
+        <v>-0.03216502688118294</v>
       </c>
       <c r="D53" t="n">
-        <v>0.004610791802406311</v>
+        <v>0.004779497660966023</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.02236029505729675</v>
+        <v>-0.02476969783910344</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.03264164924621582</v>
+        <v>-0.02630996304309248</v>
       </c>
       <c r="G53" t="n">
-        <v>0.006924793124198914</v>
+        <v>0.006754609946434256</v>
       </c>
       <c r="H53" t="n">
-        <v>0.1187887638807297</v>
+        <v>0.1307861000624595</v>
       </c>
       <c r="I53" t="n">
-        <v>0.01281383633613586</v>
+        <v>0.009772425556480452</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.02505245804786682</v>
+        <v>-0.02548717276105197</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.01861077547073364</v>
+        <v>-0.01954383755186424</v>
       </c>
       <c r="L53" t="n">
-        <v>1.019651532173157</v>
+        <v>0.8163744022371443</v>
       </c>
       <c r="M53" t="n">
-        <v>0.003552272915840149</v>
+        <v>0.003764449820415398</v>
       </c>
       <c r="N53" t="n">
-        <v>-0.04656374454498291</v>
+        <v>-0.04126189418462343</v>
       </c>
       <c r="O53" t="n">
-        <v>0.0008577555418014526</v>
+        <v>0.0007680863743214248</v>
       </c>
       <c r="P53" t="n">
-        <v>0.0005833655595779419</v>
+        <v>0.0004968705111254581</v>
       </c>
       <c r="Q53" t="n">
-        <v>-0.01003780961036682</v>
+        <v>-0.01162092774784646</v>
       </c>
       <c r="R53" t="n">
-        <v>0.0106174647808075</v>
+        <v>0.00908191414367151</v>
       </c>
       <c r="S53" t="n">
-        <v>0.01523320376873016</v>
+        <v>0.01885927289558788</v>
       </c>
       <c r="T53" t="n">
-        <v>0.003802105784416199</v>
+        <v>0.003947428318746241</v>
       </c>
       <c r="U53" t="n">
-        <v>-0.01732489466667175</v>
+        <v>-0.01801012876223444</v>
       </c>
     </row>
     <row r="54">
@@ -3926,64 +3926,64 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0.009896501898765564</v>
+        <v>0.007282729084466496</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.02188599109649658</v>
+        <v>-0.02415348503931343</v>
       </c>
       <c r="D54" t="n">
-        <v>0.004531845450401306</v>
+        <v>0.004310693781982024</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.01984384655952454</v>
+        <v>-0.02149449565583678</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.01847720146179199</v>
+        <v>-0.01788181366780294</v>
       </c>
       <c r="G54" t="n">
-        <v>0.006189197301864624</v>
+        <v>0.006270414113982705</v>
       </c>
       <c r="H54" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>6.81095244774487e-05</v>
       </c>
       <c r="I54" t="n">
-        <v>0.01167246699333191</v>
+        <v>0.007192557533142302</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.02275344729423523</v>
+        <v>-0.02165165944785185</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.01941081881523132</v>
+        <v>-0.02306145692832802</v>
       </c>
       <c r="L54" t="n">
-        <v>1.077399253845215</v>
+        <v>1.078961176316007</v>
       </c>
       <c r="M54" t="n">
-        <v>0.003183886408805847</v>
+        <v>0.002836830006946768</v>
       </c>
       <c r="N54" t="n">
-        <v>0.04995448887348175</v>
+        <v>0.0478312536369772</v>
       </c>
       <c r="O54" t="n">
-        <v>0.001014813780784607</v>
+        <v>0.001071375491947298</v>
       </c>
       <c r="P54" t="n">
-        <v>0.0007953494787216187</v>
+        <v>0.0008348765021105252</v>
       </c>
       <c r="Q54" t="n">
-        <v>-0.01007208228111267</v>
+        <v>-0.01228102284942108</v>
       </c>
       <c r="R54" t="n">
-        <v>0.008480757474899292</v>
+        <v>0.01051308917796079</v>
       </c>
       <c r="S54" t="n">
-        <v>0.01311905682086945</v>
+        <v>0.01271565530754705</v>
       </c>
       <c r="T54" t="n">
-        <v>0.003400459885597229</v>
+        <v>0.003651228822373947</v>
       </c>
       <c r="U54" t="n">
-        <v>-0.01244968175888062</v>
+        <v>-0.01551646612170463</v>
       </c>
     </row>
     <row r="55">
@@ -3991,64 +3991,64 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.01002523303031921</v>
+        <v>0.01006197244664235</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.02019378542900085</v>
+        <v>-0.01784586201672109</v>
       </c>
       <c r="D55" t="n">
-        <v>0.004508793354034424</v>
+        <v>0.004549463689673593</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.02230662107467651</v>
+        <v>-0.02425054527581535</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.01713982224464417</v>
+        <v>-0.01619049399245488</v>
       </c>
       <c r="G55" t="n">
-        <v>0.005376249551773071</v>
+        <v>0.006014996005321376</v>
       </c>
       <c r="H55" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>0.002296990899749456</v>
       </c>
       <c r="I55" t="n">
-        <v>0.01439878344535828</v>
+        <v>0.01239062521934904</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.02494093775749207</v>
+        <v>-0.0176816312418902</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.01796612143516541</v>
+        <v>-0.01731852503623531</v>
       </c>
       <c r="L55" t="n">
-        <v>0.1505149304866791</v>
+        <v>0.1954747469892927</v>
       </c>
       <c r="M55" t="n">
-        <v>0.003876566886901855</v>
+        <v>0.00358898276966865</v>
       </c>
       <c r="N55" t="n">
-        <v>-0.00736469030380249</v>
+        <v>-0.01597192501641738</v>
       </c>
       <c r="O55" t="n">
-        <v>0.001013979315757751</v>
+        <v>0.001149318029683177</v>
       </c>
       <c r="P55" t="n">
-        <v>0.0007780343294143677</v>
+        <v>0.0008391228215828618</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.009994223713874817</v>
+        <v>0.01106264570374448</v>
       </c>
       <c r="R55" t="n">
-        <v>0.008928820490837097</v>
+        <v>0.007999942124930159</v>
       </c>
       <c r="S55" t="n">
-        <v>0.01431481540203094</v>
+        <v>0.01426409694254613</v>
       </c>
       <c r="T55" t="n">
-        <v>0.003188669681549072</v>
+        <v>0.003130551758934399</v>
       </c>
       <c r="U55" t="n">
-        <v>-0.01523157954216003</v>
+        <v>-0.01446731588155978</v>
       </c>
     </row>
     <row r="56">
@@ -4056,64 +4056,64 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.006723135709762573</v>
+        <v>-0.01071919672339972</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.03145179152488708</v>
+        <v>-0.03057086246445478</v>
       </c>
       <c r="D56" t="n">
-        <v>0.004592791199684143</v>
+        <v>0.004681587893699734</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.0326579213142395</v>
+        <v>-0.0342560346142259</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.02722904086112976</v>
+        <v>-0.02472663476591706</v>
       </c>
       <c r="G56" t="n">
-        <v>0.00739365816116333</v>
+        <v>0.006404456452266149</v>
       </c>
       <c r="H56" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>-0.000322753653027638</v>
       </c>
       <c r="I56" t="n">
-        <v>0.009791046380996704</v>
+        <v>0.01226986857805921</v>
       </c>
       <c r="J56" t="n">
-        <v>-0.02436098456382751</v>
+        <v>-0.02087331772482531</v>
       </c>
       <c r="K56" t="n">
-        <v>-0.03672516345977783</v>
+        <v>-0.0338692837335441</v>
       </c>
       <c r="L56" t="n">
-        <v>0.1494866609573364</v>
+        <v>0.4983855906818018</v>
       </c>
       <c r="M56" t="n">
-        <v>0.003567904233932495</v>
+        <v>0.003292536402079769</v>
       </c>
       <c r="N56" t="n">
-        <v>-0.002742409706115723</v>
+        <v>-0.009218358265653375</v>
       </c>
       <c r="O56" t="n">
-        <v>0.0008251368999481201</v>
+        <v>0.0008255941628955341</v>
       </c>
       <c r="P56" t="n">
-        <v>0.0006313323974609375</v>
+        <v>0.000736371270372495</v>
       </c>
       <c r="Q56" t="n">
-        <v>-0.01642102003097534</v>
+        <v>-0.01608584929923297</v>
       </c>
       <c r="R56" t="n">
-        <v>0.0134367048740387</v>
+        <v>0.01167776992842531</v>
       </c>
       <c r="S56" t="n">
-        <v>0.01531624794006348</v>
+        <v>0.01389107867002744</v>
       </c>
       <c r="T56" t="n">
-        <v>0.005778506398200989</v>
+        <v>0.006333180647478454</v>
       </c>
       <c r="U56" t="n">
-        <v>-0.03123131394386292</v>
+        <v>-0.03373120700007814</v>
       </c>
     </row>
     <row r="57">
@@ -4121,64 +4121,64 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0.01002523303031921</v>
+        <v>0.01188806136255654</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.04491931200027466</v>
+        <v>-0.04409191158961408</v>
       </c>
       <c r="D57" t="n">
-        <v>0.004703372716903687</v>
+        <v>0.004444299299234435</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.04496613144874573</v>
+        <v>-0.04298280638609867</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.04459702968597412</v>
+        <v>-0.04096135200505827</v>
       </c>
       <c r="G57" t="n">
-        <v>0.006147325038909912</v>
+        <v>0.006760223744113616</v>
       </c>
       <c r="H57" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>0.0001228367561787221</v>
       </c>
       <c r="I57" t="n">
-        <v>0.009558051824569702</v>
+        <v>0.007713526885175205</v>
       </c>
       <c r="J57" t="n">
-        <v>-0.04431894421577454</v>
+        <v>-0.04199204432253211</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.03758120536804199</v>
+        <v>-0.03872649049240214</v>
       </c>
       <c r="L57" t="n">
-        <v>0.1145110279321671</v>
+        <v>0.1936285430041149</v>
       </c>
       <c r="M57" t="n">
-        <v>0.003322675824165344</v>
+        <v>0.003388383543095762</v>
       </c>
       <c r="N57" t="n">
-        <v>0.001687765121459961</v>
+        <v>0.006484500061949406</v>
       </c>
       <c r="O57" t="n">
-        <v>0.000757560133934021</v>
+        <v>0.0005487100315501894</v>
       </c>
       <c r="P57" t="n">
-        <v>0.0006129294633865356</v>
+        <v>0.0005532671747527954</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.02001850306987762</v>
+        <v>0.01977472029573289</v>
       </c>
       <c r="R57" t="n">
-        <v>0.01510611176490784</v>
+        <v>0.01567643952104759</v>
       </c>
       <c r="S57" t="n">
-        <v>0.01820485293865204</v>
+        <v>0.01714048862550402</v>
       </c>
       <c r="T57" t="n">
-        <v>0.004618898034095764</v>
+        <v>0.004694766183736957</v>
       </c>
       <c r="U57" t="n">
-        <v>-0.04444915056228638</v>
+        <v>-0.04304002415670635</v>
       </c>
     </row>
     <row r="58">
@@ -4186,64 +4186,64 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0.009979546070098877</v>
+        <v>0.0072144821567731</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.04021608829498291</v>
+        <v>-0.04417236101808373</v>
       </c>
       <c r="D58" t="n">
-        <v>0.004474863409996033</v>
+        <v>0.004504659212374498</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.03791627287864685</v>
+        <v>-0.03902097862768999</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.04174402356147766</v>
+        <v>-0.03916062718939457</v>
       </c>
       <c r="G58" t="n">
-        <v>0.006450235843658447</v>
+        <v>0.006015053999632151</v>
       </c>
       <c r="H58" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>0.00206477576664443</v>
       </c>
       <c r="I58" t="n">
-        <v>0.007414966821670532</v>
+        <v>0.007782559032575931</v>
       </c>
       <c r="J58" t="n">
-        <v>-0.03286859393119812</v>
+        <v>-0.03548193963213631</v>
       </c>
       <c r="K58" t="n">
-        <v>-0.0407538115978241</v>
+        <v>-0.04322849747275856</v>
       </c>
       <c r="L58" t="n">
-        <v>0.1090944856405258</v>
+        <v>-0.07403812205453511</v>
       </c>
       <c r="M58" t="n">
-        <v>0.003073170781135559</v>
+        <v>0.003167693531530576</v>
       </c>
       <c r="N58" t="n">
-        <v>-0.001680478453636169</v>
+        <v>-0.0003368350893064408</v>
       </c>
       <c r="O58" t="n">
-        <v>0.0009815245866775513</v>
+        <v>0.0009676847897184585</v>
       </c>
       <c r="P58" t="n">
-        <v>0.0006142705678939819</v>
+        <v>0.000581699467372977</v>
       </c>
       <c r="Q58" t="n">
-        <v>-0.009986221790313721</v>
+        <v>-0.007873997425673693</v>
       </c>
       <c r="R58" t="n">
-        <v>0.008000940084457397</v>
+        <v>0.008761682483006683</v>
       </c>
       <c r="S58" t="n">
-        <v>0.01470944285392761</v>
+        <v>0.01349744273337634</v>
       </c>
       <c r="T58" t="n">
-        <v>0.004310771822929382</v>
+        <v>0.004347309137396776</v>
       </c>
       <c r="U58" t="n">
-        <v>-0.02933764457702637</v>
+        <v>-0.03175358966645515</v>
       </c>
     </row>
     <row r="59">
@@ -4251,64 +4251,64 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0.01124905049800873</v>
+        <v>0.008531424054305407</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.0342366099357605</v>
+        <v>-0.03865235683423033</v>
       </c>
       <c r="D59" t="n">
-        <v>0.004802286624908447</v>
+        <v>0.004585638343406468</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.03084579110145569</v>
+        <v>-0.03022993538163586</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.02526563405990601</v>
+        <v>-0.03023222620701909</v>
       </c>
       <c r="G59" t="n">
-        <v>0.006965756416320801</v>
+        <v>0.007874000946520654</v>
       </c>
       <c r="H59" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>0.001790094928948521</v>
       </c>
       <c r="I59" t="n">
-        <v>0.008843690156936646</v>
+        <v>0.009871735204260924</v>
       </c>
       <c r="J59" t="n">
-        <v>-0.02435114979743958</v>
+        <v>-0.02823075280044117</v>
       </c>
       <c r="K59" t="n">
-        <v>-0.02682316303253174</v>
+        <v>-0.03145051682473643</v>
       </c>
       <c r="L59" t="n">
-        <v>1.034814596176147</v>
+        <v>1.072434026010381</v>
       </c>
       <c r="M59" t="n">
-        <v>0.002982363104820251</v>
+        <v>0.002988234126445685</v>
       </c>
       <c r="N59" t="n">
-        <v>0.05182032287120819</v>
+        <v>0.05035574275525853</v>
       </c>
       <c r="O59" t="n">
-        <v>0.001004591584205627</v>
+        <v>0.001154415099781898</v>
       </c>
       <c r="P59" t="n">
-        <v>0.0005637854337692261</v>
+        <v>0.0004439245773724944</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.01006568968296051</v>
+        <v>0.01131382261171573</v>
       </c>
       <c r="R59" t="n">
-        <v>0.01174524426460266</v>
+        <v>0.0131773571546195</v>
       </c>
       <c r="S59" t="n">
-        <v>0.01444411277770996</v>
+        <v>0.01586992866280605</v>
       </c>
       <c r="T59" t="n">
-        <v>0.005273565649986267</v>
+        <v>0.005203954632833313</v>
       </c>
       <c r="U59" t="n">
-        <v>-0.024483323097229</v>
+        <v>-0.02088000011357879</v>
       </c>
     </row>
     <row r="60">
@@ -4316,64 +4316,64 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.01269304752349854</v>
+        <v>-0.01507500365492125</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.02211067080497742</v>
+        <v>-0.02051908424525692</v>
       </c>
       <c r="D60" t="n">
-        <v>0.004266664385795593</v>
+        <v>0.00384977279136129</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.01337653398513794</v>
+        <v>-0.01976886761036302</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.01824042201042175</v>
+        <v>-0.01410632999432828</v>
       </c>
       <c r="G60" t="n">
-        <v>0.009715229272842407</v>
+        <v>0.006688748323798135</v>
       </c>
       <c r="H60" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>-0.0001044993407723479</v>
       </c>
       <c r="I60" t="n">
-        <v>0.01314418017864227</v>
+        <v>0.01448153808543183</v>
       </c>
       <c r="J60" t="n">
-        <v>-0.01962533593177795</v>
+        <v>-0.01656486037275722</v>
       </c>
       <c r="K60" t="n">
-        <v>-0.01972192525863647</v>
+        <v>-0.0200290364481085</v>
       </c>
       <c r="L60" t="n">
-        <v>1.855741143226624</v>
+        <v>3.026695874122307</v>
       </c>
       <c r="M60" t="n">
-        <v>0.003758698701858521</v>
+        <v>0.003860454172270042</v>
       </c>
       <c r="N60" t="n">
-        <v>0.01058384776115417</v>
+        <v>0.01289303269336928</v>
       </c>
       <c r="O60" t="n">
-        <v>0.0009462833404541016</v>
+        <v>0.0009238956304996708</v>
       </c>
       <c r="P60" t="n">
-        <v>0.0005828738212585449</v>
+        <v>0.0005990826688015016</v>
       </c>
       <c r="Q60" t="n">
-        <v>-0.02223336696624756</v>
+        <v>-0.01180151214244701</v>
       </c>
       <c r="R60" t="n">
-        <v>0.007475271821022034</v>
+        <v>0.007408607559611483</v>
       </c>
       <c r="S60" t="n">
-        <v>0.01456287503242493</v>
+        <v>0.01341054122422763</v>
       </c>
       <c r="T60" t="n">
-        <v>0.003872156143188477</v>
+        <v>0.00386662414015834</v>
       </c>
       <c r="U60" t="n">
-        <v>-0.0154367983341217</v>
+        <v>-0.01599849135341784</v>
       </c>
     </row>
     <row r="61">
@@ -4381,64 +4381,64 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.009246706962585449</v>
+        <v>-0.005487486606718563</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.0258069634437561</v>
+        <v>-0.0250659666476513</v>
       </c>
       <c r="D61" t="n">
-        <v>0.004390835762023926</v>
+        <v>0.004630661557045769</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.02947476506233215</v>
+        <v>-0.03302673066580886</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.0232396125793457</v>
+        <v>-0.02714109924320229</v>
       </c>
       <c r="G61" t="n">
-        <v>0.00716090202331543</v>
+        <v>0.006472863530862757</v>
       </c>
       <c r="H61" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>-0.0007095913155140288</v>
       </c>
       <c r="I61" t="n">
-        <v>0.007605507969856262</v>
+        <v>0.009930227760599961</v>
       </c>
       <c r="J61" t="n">
-        <v>-0.02745416760444641</v>
+        <v>-0.02219041206016006</v>
       </c>
       <c r="K61" t="n">
-        <v>-0.0395207405090332</v>
+        <v>-0.03887587059013268</v>
       </c>
       <c r="L61" t="n">
-        <v>0.2538942098617554</v>
+        <v>0.005273371883167237</v>
       </c>
       <c r="M61" t="n">
-        <v>0.003432244062423706</v>
+        <v>0.003632760644637911</v>
       </c>
       <c r="N61" t="n">
-        <v>-0.003362655639648438</v>
+        <v>0.007280203275568156</v>
       </c>
       <c r="O61" t="n">
-        <v>0.00087013840675354</v>
+        <v>0.0008829990986479105</v>
       </c>
       <c r="P61" t="n">
-        <v>0.0006006807088851929</v>
+        <v>0.000658529468097204</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.01000754535198212</v>
+        <v>0.01278960876727703</v>
       </c>
       <c r="R61" t="n">
-        <v>0.007561981678009033</v>
+        <v>0.008020384416807438</v>
       </c>
       <c r="S61" t="n">
-        <v>0.01457534730434418</v>
+        <v>0.0128839638545672</v>
       </c>
       <c r="T61" t="n">
-        <v>0.00519368052482605</v>
+        <v>0.005981656131563846</v>
       </c>
       <c r="U61" t="n">
-        <v>-0.02441573143005371</v>
+        <v>-0.02400708701549928</v>
       </c>
     </row>
     <row r="62">
@@ -4446,64 +4446,64 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>0.02120748162269592</v>
+        <v>0.01971681794928802</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.01635053753852844</v>
+        <v>-0.01415549449914139</v>
       </c>
       <c r="D62" t="n">
-        <v>0.005359441041946411</v>
+        <v>0.004234529374106593</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.02198052406311035</v>
+        <v>-0.02141054862987736</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.02002087235450745</v>
+        <v>-0.01697882739285803</v>
       </c>
       <c r="G62" t="n">
-        <v>0.006211027503013611</v>
+        <v>0.006358366730242272</v>
       </c>
       <c r="H62" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>0.0001265812754712553</v>
       </c>
       <c r="I62" t="n">
-        <v>0.009464547038078308</v>
+        <v>0.01364305050938056</v>
       </c>
       <c r="J62" t="n">
-        <v>-0.01460891962051392</v>
+        <v>-0.01821136705192515</v>
       </c>
       <c r="K62" t="n">
-        <v>-0.01786935329437256</v>
+        <v>-0.01758478845821753</v>
       </c>
       <c r="L62" t="n">
-        <v>1.852851152420044</v>
+        <v>1.963582227460812</v>
       </c>
       <c r="M62" t="n">
-        <v>0.003347083926200867</v>
+        <v>0.003183368964766943</v>
       </c>
       <c r="N62" t="n">
-        <v>0.007311627268791199</v>
+        <v>0.01519188110886085</v>
       </c>
       <c r="O62" t="n">
-        <v>0.000790521502494812</v>
+        <v>0.0006497934351192155</v>
       </c>
       <c r="P62" t="n">
-        <v>0.0006203204393386841</v>
+        <v>0.000582568739793981</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.02766676247119904</v>
+        <v>0.02339980873307394</v>
       </c>
       <c r="R62" t="n">
-        <v>0.009514600038528442</v>
+        <v>0.01098866372803604</v>
       </c>
       <c r="S62" t="n">
-        <v>0.0143396258354187</v>
+        <v>0.01389176299646088</v>
       </c>
       <c r="T62" t="n">
-        <v>0.006625980138778687</v>
+        <v>0.006123335395384575</v>
       </c>
       <c r="U62" t="n">
-        <v>-0.02316519618034363</v>
+        <v>-0.02521693702585233</v>
       </c>
     </row>
     <row r="63">
@@ -4511,64 +4511,64 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0.01002523303031921</v>
+        <v>0.01051643402199013</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.04291296005249023</v>
+        <v>-0.04055532124710052</v>
       </c>
       <c r="D63" t="n">
-        <v>0.004495754837989807</v>
+        <v>0.004411177247074221</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.04626932740211487</v>
+        <v>-0.04738287585611081</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.04280683398246765</v>
+        <v>-0.04378908600222686</v>
       </c>
       <c r="G63" t="n">
-        <v>0.005847617983818054</v>
+        <v>0.005956265765157166</v>
       </c>
       <c r="H63" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>-0.003342562507119105</v>
       </c>
       <c r="I63" t="n">
-        <v>0.01207660138607025</v>
+        <v>0.01240962350866024</v>
       </c>
       <c r="J63" t="n">
-        <v>-0.04125219583511353</v>
+        <v>-0.04122456427381192</v>
       </c>
       <c r="K63" t="n">
-        <v>-0.04020509123802185</v>
+        <v>-0.04460847967148392</v>
       </c>
       <c r="L63" t="n">
-        <v>0.134845644235611</v>
+        <v>0.06435183121126696</v>
       </c>
       <c r="M63" t="n">
-        <v>0.003212451934814453</v>
+        <v>0.003330970502065856</v>
       </c>
       <c r="N63" t="n">
-        <v>-0.0003350675106048584</v>
+        <v>-0.01047000739597212</v>
       </c>
       <c r="O63" t="n">
-        <v>0.0009104311466217041</v>
+        <v>0.0009723378950946947</v>
       </c>
       <c r="P63" t="n">
-        <v>0.0005811005830764771</v>
+        <v>0.0005257872667867492</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.01009854674339294</v>
+        <v>0.01198437822911169</v>
       </c>
       <c r="R63" t="n">
-        <v>0.009752839803695679</v>
+        <v>0.01085761362527319</v>
       </c>
       <c r="S63" t="n">
-        <v>0.01593112945556641</v>
+        <v>0.01577125454868843</v>
       </c>
       <c r="T63" t="n">
-        <v>0.005777910351753235</v>
+        <v>0.005806958847746886</v>
       </c>
       <c r="U63" t="n">
-        <v>-0.04237440228462219</v>
+        <v>-0.0412412460289282</v>
       </c>
     </row>
     <row r="64">
@@ -4576,64 +4576,64 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>0.009996533393859863</v>
+        <v>0.009483043897473788</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.01877659559249878</v>
+        <v>-0.02007172302850693</v>
       </c>
       <c r="D64" t="n">
-        <v>0.004626810550689697</v>
+        <v>0.004702903721673996</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.02296730875968933</v>
+        <v>-0.02601023236177483</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.01756525039672852</v>
+        <v>-0.01648185590876741</v>
       </c>
       <c r="G64" t="n">
-        <v>0.00740329921245575</v>
+        <v>0.006871712610179763</v>
       </c>
       <c r="H64" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>-0.0003018889980205497</v>
       </c>
       <c r="I64" t="n">
-        <v>0.009904876351356506</v>
+        <v>0.0133774273746756</v>
       </c>
       <c r="J64" t="n">
-        <v>-0.02200409770011902</v>
+        <v>-0.01926862039718392</v>
       </c>
       <c r="K64" t="n">
-        <v>-0.01954755187034607</v>
+        <v>-0.02437811893375428</v>
       </c>
       <c r="L64" t="n">
-        <v>2.824652671813965</v>
+        <v>2.002690040007185</v>
       </c>
       <c r="M64" t="n">
-        <v>0.003296166658401489</v>
+        <v>0.003411684437901088</v>
       </c>
       <c r="N64" t="n">
-        <v>0.005877003073692322</v>
+        <v>0.01287453933521506</v>
       </c>
       <c r="O64" t="n">
-        <v>0.0007670819759368896</v>
+        <v>0.0006318420376979022</v>
       </c>
       <c r="P64" t="n">
-        <v>0.0005637854337692261</v>
+        <v>0.0004892003162356536</v>
       </c>
       <c r="Q64" t="n">
-        <v>-0.01643496751785278</v>
+        <v>-0.02201415233714156</v>
       </c>
       <c r="R64" t="n">
-        <v>0.008906498551368713</v>
+        <v>0.00862288312036826</v>
       </c>
       <c r="S64" t="n">
-        <v>0.01221664249897003</v>
+        <v>0.01161025171367803</v>
       </c>
       <c r="T64" t="n">
-        <v>0.006207957863807678</v>
+        <v>0.005878767070363403</v>
       </c>
       <c r="U64" t="n">
-        <v>-0.02064323425292969</v>
+        <v>-0.02209746346823333</v>
       </c>
     </row>
     <row r="65">
@@ -4641,64 +4641,64 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>-2.467632293701172e-05</v>
+        <v>-0.0006288590426299892</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.04310864210128784</v>
+        <v>-0.03978636589758308</v>
       </c>
       <c r="D65" t="n">
-        <v>0.004500895738601685</v>
+        <v>0.004412731646178596</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.03878840804100037</v>
+        <v>-0.03499087822940209</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.04531258344650269</v>
+        <v>-0.04241935503255349</v>
       </c>
       <c r="G65" t="n">
-        <v>0.008251085877418518</v>
+        <v>0.006903980142076003</v>
       </c>
       <c r="H65" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>0.0002565332611823038</v>
       </c>
       <c r="I65" t="n">
-        <v>0.01047217845916748</v>
+        <v>0.0111511680230071</v>
       </c>
       <c r="J65" t="n">
-        <v>-0.0384795069694519</v>
+        <v>-0.03732619279409936</v>
       </c>
       <c r="K65" t="n">
-        <v>-0.04131683707237244</v>
+        <v>-0.0430792390689652</v>
       </c>
       <c r="L65" t="n">
-        <v>0.9857650399208069</v>
+        <v>0.9248544738968333</v>
       </c>
       <c r="M65" t="n">
-        <v>0.003238633275032043</v>
+        <v>0.003141839044093381</v>
       </c>
       <c r="N65" t="n">
-        <v>-0.04358091950416565</v>
+        <v>-0.0464238932346982</v>
       </c>
       <c r="O65" t="n">
-        <v>0.0007705986499786377</v>
+        <v>0.0006681933058982687</v>
       </c>
       <c r="P65" t="n">
-        <v>0.0005637854337692261</v>
+        <v>0.0004012412975676031</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.01996526122093201</v>
+        <v>0.01909647990971531</v>
       </c>
       <c r="R65" t="n">
-        <v>0.006148889660835266</v>
+        <v>0.007346854558418607</v>
       </c>
       <c r="S65" t="n">
-        <v>0.009374856948852539</v>
+        <v>0.01061647180079299</v>
       </c>
       <c r="T65" t="n">
-        <v>0.005771294236183167</v>
+        <v>0.005680323607548928</v>
       </c>
       <c r="U65" t="n">
-        <v>-0.04395276308059692</v>
+        <v>-0.03722880707008736</v>
       </c>
     </row>
     <row r="66">
@@ -4706,64 +4706,64 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0.01002523303031921</v>
+        <v>0.01197461849044727</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.03162604570388794</v>
+        <v>-0.03022896765312507</v>
       </c>
       <c r="D66" t="n">
-        <v>0.004769936203956604</v>
+        <v>0.004531652426284618</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.02782925963401794</v>
+        <v>-0.02458237207896362</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.0280001163482666</v>
+        <v>-0.0247168067182409</v>
       </c>
       <c r="G66" t="n">
-        <v>0.007204174995422363</v>
+        <v>0.006423090987692785</v>
       </c>
       <c r="H66" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>-0.001525209482557272</v>
       </c>
       <c r="I66" t="n">
-        <v>0.006159752607345581</v>
+        <v>0.006375192584321754</v>
       </c>
       <c r="J66" t="n">
-        <v>-0.02642747759819031</v>
+        <v>-0.02262753516939463</v>
       </c>
       <c r="K66" t="n">
-        <v>-0.02519786357879639</v>
+        <v>-0.02694252772929217</v>
       </c>
       <c r="L66" t="n">
-        <v>0.116803303360939</v>
+        <v>-0.009081505436236556</v>
       </c>
       <c r="M66" t="n">
-        <v>0.003309160470962524</v>
+        <v>0.002367923596968738</v>
       </c>
       <c r="N66" t="n">
-        <v>0.02399763464927673</v>
+        <v>0.01442162591254575</v>
       </c>
       <c r="O66" t="n">
-        <v>0.0009208321571350098</v>
+        <v>0.0009102197933558599</v>
       </c>
       <c r="P66" t="n">
-        <v>0.0005808323621749878</v>
+        <v>0.0005385488249165918</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.01006568968296051</v>
+        <v>0.009877609810361636</v>
       </c>
       <c r="R66" t="n">
-        <v>0.0175163745880127</v>
+        <v>0.01763907088627731</v>
       </c>
       <c r="S66" t="n">
-        <v>0.01806344091892242</v>
+        <v>0.01776543780097203</v>
       </c>
       <c r="T66" t="n">
-        <v>0.003504112362861633</v>
+        <v>0.003542961188517378</v>
       </c>
       <c r="U66" t="n">
-        <v>-0.02563318610191345</v>
+        <v>-0.02504990733014539</v>
       </c>
     </row>
     <row r="67">
@@ -4771,64 +4771,64 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.009941816329956055</v>
+        <v>-0.007791149964348492</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.04229271411895752</v>
+        <v>-0.04508238590111676</v>
       </c>
       <c r="D67" t="n">
-        <v>0.004547357559204102</v>
+        <v>0.004280351093071783</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.04623901844024658</v>
+        <v>-0.04508821843267755</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.04056227207183838</v>
+        <v>-0.03510924607083242</v>
       </c>
       <c r="G67" t="n">
-        <v>0.006046190857887268</v>
+        <v>0.00625815050921569</v>
       </c>
       <c r="H67" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>-0.0001920559705723008</v>
       </c>
       <c r="I67" t="n">
-        <v>0.01040652394294739</v>
+        <v>0.007675943076894318</v>
       </c>
       <c r="J67" t="n">
-        <v>-0.04380863904953003</v>
+        <v>-0.0430312075576519</v>
       </c>
       <c r="K67" t="n">
-        <v>-0.0430435836315155</v>
+        <v>-0.04199014632715811</v>
       </c>
       <c r="L67" t="n">
-        <v>0.3094602227210999</v>
+        <v>0.2832651266854257</v>
       </c>
       <c r="M67" t="n">
-        <v>0.003298789262771606</v>
+        <v>0.003188511859207421</v>
       </c>
       <c r="N67" t="n">
-        <v>0.004720002412796021</v>
+        <v>-0.001259963886628528</v>
       </c>
       <c r="O67" t="n">
-        <v>0.0009013712406158447</v>
+        <v>0.0008576705357467875</v>
       </c>
       <c r="P67" t="n">
-        <v>0.0005833655595779419</v>
+        <v>0.0004415446895832311</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.0199897438287735</v>
+        <v>0.01923526325511032</v>
       </c>
       <c r="R67" t="n">
-        <v>0.01028738915920258</v>
+        <v>0.009697056445644866</v>
       </c>
       <c r="S67" t="n">
-        <v>0.01519912481307983</v>
+        <v>0.01501200546612191</v>
       </c>
       <c r="T67" t="n">
-        <v>0.005564495921134949</v>
+        <v>0.004853966052251728</v>
       </c>
       <c r="U67" t="n">
-        <v>-0.04329341650009155</v>
+        <v>-0.04203973884519536</v>
       </c>
     </row>
     <row r="68">
@@ -4836,64 +4836,64 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0004983693361282349</v>
+        <v>0.002353852125072809</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.04687881469726562</v>
+        <v>-0.04316971677413962</v>
       </c>
       <c r="D68" t="n">
-        <v>0.004540443420410156</v>
+        <v>0.004362413514583152</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.04273882508277893</v>
+        <v>-0.04066694607550429</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.04393607378005981</v>
+        <v>-0.04814806181739559</v>
       </c>
       <c r="G68" t="n">
-        <v>0.005955860018730164</v>
+        <v>0.005686461372383563</v>
       </c>
       <c r="H68" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>0.001470484893100062</v>
       </c>
       <c r="I68" t="n">
-        <v>0.009698480367660522</v>
+        <v>0.00850573622330116</v>
       </c>
       <c r="J68" t="n">
-        <v>-0.04213151335716248</v>
+        <v>-0.03781826040374623</v>
       </c>
       <c r="K68" t="n">
-        <v>-0.04325681924819946</v>
+        <v>-0.04288349479426332</v>
       </c>
       <c r="L68" t="n">
-        <v>1.032598614692688</v>
+        <v>1.203186843431782</v>
       </c>
       <c r="M68" t="n">
-        <v>0.003290086984634399</v>
+        <v>0.003123047895225732</v>
       </c>
       <c r="N68" t="n">
-        <v>0.04938875138759613</v>
+        <v>0.04997371653177686</v>
       </c>
       <c r="O68" t="n">
-        <v>0.001041293144226074</v>
+        <v>0.001293139107023623</v>
       </c>
       <c r="P68" t="n">
-        <v>0.0006299912929534912</v>
+        <v>0.0006554087370705025</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.009994223713874817</v>
+        <v>0.01037146851979124</v>
       </c>
       <c r="R68" t="n">
-        <v>0.007623434066772461</v>
+        <v>0.008924162531670769</v>
       </c>
       <c r="S68" t="n">
-        <v>0.008993193507194519</v>
+        <v>0.01108428088974544</v>
       </c>
       <c r="T68" t="n">
-        <v>0.00413888692855835</v>
+        <v>0.004140515388616873</v>
       </c>
       <c r="U68" t="n">
-        <v>-0.03883129358291626</v>
+        <v>-0.03555244965125619</v>
       </c>
     </row>
     <row r="69">
@@ -4901,64 +4901,64 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>-2.688169479370117e-05</v>
+        <v>-0.001515147142152759</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.02027717232704163</v>
+        <v>-0.02180857213851964</v>
       </c>
       <c r="D69" t="n">
-        <v>0.004838377237319946</v>
+        <v>0.005093538475080705</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.01914018392562866</v>
+        <v>-0.01867600382040183</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.01986661553382874</v>
+        <v>-0.0220131398586753</v>
       </c>
       <c r="G69" t="n">
-        <v>0.001308217644691467</v>
+        <v>0.001211165340506422</v>
       </c>
       <c r="H69" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>-0.0007214984404150609</v>
       </c>
       <c r="I69" t="n">
-        <v>0.0107203871011734</v>
+        <v>0.008540475814777168</v>
       </c>
       <c r="J69" t="n">
-        <v>-0.01875680685043335</v>
+        <v>-0.02006134554442148</v>
       </c>
       <c r="K69" t="n">
-        <v>-0.01980674266815186</v>
+        <v>-0.01474875432068944</v>
       </c>
       <c r="L69" t="n">
-        <v>0.1519001424312592</v>
+        <v>0.3369231150809823</v>
       </c>
       <c r="M69" t="n">
-        <v>0.00685371458530426</v>
+        <v>0.008262021719557892</v>
       </c>
       <c r="N69" t="n">
-        <v>-0.01195883750915527</v>
+        <v>-0.01475936945989306</v>
       </c>
       <c r="O69" t="n">
-        <v>0.001044273376464844</v>
+        <v>0.001134659858577388</v>
       </c>
       <c r="P69" t="n">
-        <v>0.0008080005645751953</v>
+        <v>0.001017281678783636</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.02015912532806396</v>
+        <v>0.01964802450497625</v>
       </c>
       <c r="R69" t="n">
-        <v>0.001553446054458618</v>
+        <v>0.001685548093085448</v>
       </c>
       <c r="S69" t="n">
-        <v>0.0001885592937469482</v>
+        <v>0.001362786985818405</v>
       </c>
       <c r="T69" t="n">
-        <v>0.005074501037597656</v>
+        <v>0.005410638747719679</v>
       </c>
       <c r="U69" t="n">
-        <v>-0.01696091890335083</v>
+        <v>-0.01893286457129416</v>
       </c>
     </row>
     <row r="70">
@@ -4966,64 +4966,64 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.000167161226272583</v>
+        <v>-0.001998569186125611</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.01486966013908386</v>
+        <v>-0.01725476570310358</v>
       </c>
       <c r="D70" t="n">
-        <v>0.004762038588523865</v>
+        <v>0.005030774119549615</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.01692083477973938</v>
+        <v>-0.01526202759041346</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.01654127240180969</v>
+        <v>-0.01930238719914147</v>
       </c>
       <c r="G70" t="n">
-        <v>0.001068845391273499</v>
+        <v>0.001429169999375734</v>
       </c>
       <c r="H70" t="n">
-        <v>-5.187094211578369e-05</v>
+        <v>0.01129339786019146</v>
       </c>
       <c r="I70" t="n">
-        <v>0.0136675238609314</v>
+        <v>0.01248531225748224</v>
       </c>
       <c r="J70" t="n">
-        <v>-0.01779580116271973</v>
+        <v>-0.02210165632273741</v>
       </c>
       <c r="K70" t="n">
-        <v>-0.01873451471328735</v>
+        <v>-0.01706628711665014</v>
       </c>
       <c r="L70" t="n">
-        <v>0.1361301094293594</v>
+        <v>0.2383256413332145</v>
       </c>
       <c r="M70" t="n">
-        <v>0.008173570036888123</v>
+        <v>0.008527171982929693</v>
       </c>
       <c r="N70" t="n">
-        <v>-0.01883959770202637</v>
+        <v>-0.01398082918037232</v>
       </c>
       <c r="O70" t="n">
-        <v>0.0008432269096374512</v>
+        <v>0.0007385452496670486</v>
       </c>
       <c r="P70" t="n">
-        <v>0.0005821436643600464</v>
+        <v>0.0005942019370171154</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.009957104921340942</v>
+        <v>0.007724060590888177</v>
       </c>
       <c r="R70" t="n">
-        <v>0.0008081197738647461</v>
+        <v>0.0009020782140602702</v>
       </c>
       <c r="S70" t="n">
-        <v>0.001046642661094666</v>
+        <v>0.001269382037817721</v>
       </c>
       <c r="T70" t="n">
-        <v>0.005269184708595276</v>
+        <v>0.005070025611384767</v>
       </c>
       <c r="U70" t="n">
-        <v>-0.01695489883422852</v>
+        <v>-0.01556741038925976</v>
       </c>
     </row>
     <row r="71">
@@ -5031,64 +5031,64 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.001710206270217896</v>
+        <v>0.0002743565992063128</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.02047756314277649</v>
+        <v>-0.02143873729512304</v>
       </c>
       <c r="D71" t="n">
-        <v>0.004763543605804443</v>
+        <v>0.004932693297846052</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.01914817094802856</v>
+        <v>-0.01745809857684055</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.02128931879997253</v>
+        <v>-0.01895302916733442</v>
       </c>
       <c r="G71" t="n">
-        <v>0.001131877303123474</v>
+        <v>0.001669735007199884</v>
       </c>
       <c r="H71" t="n">
-        <v>-5.187094211578369e-05</v>
+        <v>-0.001498092404416057</v>
       </c>
       <c r="I71" t="n">
-        <v>0.01227638125419617</v>
+        <v>0.01258341118483141</v>
       </c>
       <c r="J71" t="n">
-        <v>-0.02338698506355286</v>
+        <v>-0.02006901998575649</v>
       </c>
       <c r="K71" t="n">
-        <v>-0.02009290456771851</v>
+        <v>-0.01931950305705928</v>
       </c>
       <c r="L71" t="n">
-        <v>0.1245915442705154</v>
+        <v>0.3564283007760934</v>
       </c>
       <c r="M71" t="n">
-        <v>0.008629754185676575</v>
+        <v>0.008076259827577138</v>
       </c>
       <c r="N71" t="n">
-        <v>0.01602359116077423</v>
+        <v>0.002060243780159158</v>
       </c>
       <c r="O71" t="n">
-        <v>0.0007477849721908569</v>
+        <v>0.000732600837249905</v>
       </c>
       <c r="P71" t="n">
-        <v>0.0008797943592071533</v>
+        <v>0.0007932375638401731</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.02008779346942902</v>
+        <v>0.01907203970929735</v>
       </c>
       <c r="R71" t="n">
-        <v>0.001151323318481445</v>
+        <v>0.00126770702453184</v>
       </c>
       <c r="S71" t="n">
-        <v>0.002230361104011536</v>
+        <v>0.0007581270181337977</v>
       </c>
       <c r="T71" t="n">
-        <v>0.005327016115188599</v>
+        <v>0.005984026708080971</v>
       </c>
       <c r="U71" t="n">
-        <v>-0.01523452997207642</v>
+        <v>-0.02147018222079337</v>
       </c>
     </row>
     <row r="72">
@@ -5096,64 +5096,64 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.009342491626739502</v>
+        <v>-0.005734700170945394</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.02385178208351135</v>
+        <v>-0.02208332819343994</v>
       </c>
       <c r="D72" t="n">
-        <v>0.004888549447059631</v>
+        <v>0.005066601494998043</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.01622667908668518</v>
+        <v>-0.0183810000431471</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.01869267225265503</v>
+        <v>-0.01733536696958315</v>
       </c>
       <c r="G72" t="n">
-        <v>0.002087801694869995</v>
+        <v>0.001449898656590315</v>
       </c>
       <c r="H72" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>-0.001487250744510129</v>
       </c>
       <c r="I72" t="n">
-        <v>0.009767875075340271</v>
+        <v>0.01035967017360676</v>
       </c>
       <c r="J72" t="n">
-        <v>-0.01777282357215881</v>
+        <v>-0.01911218280043506</v>
       </c>
       <c r="K72" t="n">
-        <v>-0.01301959156990051</v>
+        <v>-0.01647383932779569</v>
       </c>
       <c r="L72" t="n">
-        <v>0.1513113230466843</v>
+        <v>0.2403416711035057</v>
       </c>
       <c r="M72" t="n">
-        <v>0.007344305515289307</v>
+        <v>0.007707655631178453</v>
       </c>
       <c r="N72" t="n">
-        <v>-0.01783981919288635</v>
+        <v>-0.01248752687712306</v>
       </c>
       <c r="O72" t="n">
-        <v>0.001009359955787659</v>
+        <v>0.001077214593231699</v>
       </c>
       <c r="P72" t="n">
-        <v>0.0008151233196258545</v>
+        <v>0.000969659462142436</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.009940668940544128</v>
+        <v>0.007869517984651549</v>
       </c>
       <c r="R72" t="n">
-        <v>0.001396104693412781</v>
+        <v>0.001844834435598739</v>
       </c>
       <c r="S72" t="n">
-        <v>0.000912010669708252</v>
+        <v>0.001311300573152524</v>
       </c>
       <c r="T72" t="n">
-        <v>0.004296004772186279</v>
+        <v>0.003583614401809776</v>
       </c>
       <c r="U72" t="n">
-        <v>-0.01866355538368225</v>
+        <v>-0.01929994716825004</v>
       </c>
     </row>
     <row r="73">
@@ -5161,64 +5161,64 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>0.01998420059680939</v>
+        <v>0.01704688267966986</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.02133417129516602</v>
+        <v>-0.02076668123275068</v>
       </c>
       <c r="D73" t="n">
-        <v>0.004721015691757202</v>
+        <v>0.004840444276472608</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.01983839273452759</v>
+        <v>-0.02163057980642421</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.02172744274139404</v>
+        <v>-0.01676405766948538</v>
       </c>
       <c r="G73" t="n">
-        <v>0.00119858980178833</v>
+        <v>0.0009476976751531718</v>
       </c>
       <c r="H73" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>0.003332964688484168</v>
       </c>
       <c r="I73" t="n">
-        <v>0.01159988343715668</v>
+        <v>0.01279663553726088</v>
       </c>
       <c r="J73" t="n">
-        <v>-0.01843342185020447</v>
+        <v>-0.02016574962484531</v>
       </c>
       <c r="K73" t="n">
-        <v>-0.01750156283378601</v>
+        <v>-0.020617530467249</v>
       </c>
       <c r="L73" t="n">
-        <v>0.1580474227666855</v>
+        <v>0.2235749118020645</v>
       </c>
       <c r="M73" t="n">
-        <v>0.007596492767333984</v>
+        <v>0.007233747115446607</v>
       </c>
       <c r="N73" t="n">
-        <v>-0.01236462593078613</v>
+        <v>-0.01512285237951096</v>
       </c>
       <c r="O73" t="n">
-        <v>0.0008755922317504883</v>
+        <v>0.0007705570103500566</v>
       </c>
       <c r="P73" t="n">
-        <v>0.0005811005830764771</v>
+        <v>0.0005527243192219854</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.01995900273323059</v>
+        <v>0.01931613308785582</v>
       </c>
       <c r="R73" t="n">
-        <v>0.0009690821170806885</v>
+        <v>0.0007756413500182163</v>
       </c>
       <c r="S73" t="n">
-        <v>0.002655655145645142</v>
+        <v>0.00146439012621037</v>
       </c>
       <c r="T73" t="n">
-        <v>0.004916265606880188</v>
+        <v>0.005131872110155633</v>
       </c>
       <c r="U73" t="n">
-        <v>-0.01567840576171875</v>
+        <v>-0.01560455649041104</v>
       </c>
     </row>
     <row r="74">
@@ -5226,64 +5226,64 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>0.01997557282447815</v>
+        <v>0.01863126085471634</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.01442205905914307</v>
+        <v>-0.01268348479131466</v>
       </c>
       <c r="D74" t="n">
-        <v>0.00491410493850708</v>
+        <v>0.004928517030103948</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.01263898611068726</v>
+        <v>-0.01473456193156383</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.01267567276954651</v>
+        <v>-0.01081807138033635</v>
       </c>
       <c r="G74" t="n">
-        <v>0.001608759164810181</v>
+        <v>0.0013296646293845</v>
       </c>
       <c r="H74" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>0.001235861654334851</v>
       </c>
       <c r="I74" t="n">
-        <v>0.01473201811313629</v>
+        <v>0.01518762527782791</v>
       </c>
       <c r="J74" t="n">
-        <v>-0.01868638396263123</v>
+        <v>-0.01942815380256264</v>
       </c>
       <c r="K74" t="n">
-        <v>-0.01138442754745483</v>
+        <v>-0.01142310577031924</v>
       </c>
       <c r="L74" t="n">
-        <v>1.707891225814819</v>
+        <v>1.374823467378821</v>
       </c>
       <c r="M74" t="n">
-        <v>0.007640853524208069</v>
+        <v>0.007504147129429946</v>
       </c>
       <c r="N74" t="n">
-        <v>0.04779516160488129</v>
+        <v>0.04779993708902856</v>
       </c>
       <c r="O74" t="n">
-        <v>0.0009589642286300659</v>
+        <v>0.0009495590920872791</v>
       </c>
       <c r="P74" t="n">
-        <v>0.000631287693977356</v>
+        <v>0.0007655974506878167</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.01035381853580475</v>
+        <v>0.01005218401720108</v>
       </c>
       <c r="R74" t="n">
-        <v>0.001196309924125671</v>
+        <v>0.001039324585181765</v>
       </c>
       <c r="S74" t="n">
-        <v>0.0004455000162124634</v>
+        <v>0.001386246739500579</v>
       </c>
       <c r="T74" t="n">
-        <v>0.004824519157409668</v>
+        <v>0.00342969092995578</v>
       </c>
       <c r="U74" t="n">
-        <v>-0.01610010862350464</v>
+        <v>-0.01332265231379616</v>
       </c>
     </row>
     <row r="75">
@@ -5291,64 +5291,64 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>0.01998421549797058</v>
+        <v>0.01741764360318697</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.02353200316429138</v>
+        <v>-0.02483470881790455</v>
       </c>
       <c r="D75" t="n">
-        <v>0.004732906818389893</v>
+        <v>0.00508651685599326</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.02231046557426453</v>
+        <v>-0.02248261079180638</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.01877418160438538</v>
+        <v>-0.01738183610189995</v>
       </c>
       <c r="G75" t="n">
-        <v>0.001564040780067444</v>
+        <v>0.001553538261471117</v>
       </c>
       <c r="H75" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>-0.001433139080615225</v>
       </c>
       <c r="I75" t="n">
-        <v>0.01224720478057861</v>
+        <v>0.01103512438880976</v>
       </c>
       <c r="J75" t="n">
-        <v>-0.01919084787368774</v>
+        <v>-0.02091419798205475</v>
       </c>
       <c r="K75" t="n">
-        <v>-0.02036228775978088</v>
+        <v>-0.02107131828410641</v>
       </c>
       <c r="L75" t="n">
-        <v>0.2547933161258698</v>
+        <v>0.2558509603010242</v>
       </c>
       <c r="M75" t="n">
-        <v>0.008921414613723755</v>
+        <v>0.008422291195855613</v>
       </c>
       <c r="N75" t="n">
-        <v>0.001497060060501099</v>
+        <v>-0.009721508633468975</v>
       </c>
       <c r="O75" t="n">
-        <v>0.0009326189756393433</v>
+        <v>0.0009117767652598102</v>
       </c>
       <c r="P75" t="n">
-        <v>0.0006302446126937866</v>
+        <v>0.000705345920753902</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.02003200352191925</v>
+        <v>0.01877694203777601</v>
       </c>
       <c r="R75" t="n">
-        <v>0.0009955912828445435</v>
+        <v>0.001288445703968603</v>
       </c>
       <c r="S75" t="n">
-        <v>0.0008540749549865723</v>
+        <v>0.001116519947711248</v>
       </c>
       <c r="T75" t="n">
-        <v>0.004347503185272217</v>
+        <v>0.004333953442841337</v>
       </c>
       <c r="U75" t="n">
-        <v>-0.01854413747787476</v>
+        <v>-0.02026935791005352</v>
       </c>
     </row>
     <row r="76">
@@ -5356,64 +5356,64 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>0.01002523303031921</v>
+        <v>0.009823974395193297</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.02276605367660522</v>
+        <v>-0.02119136717815023</v>
       </c>
       <c r="D76" t="n">
-        <v>0.004808396100997925</v>
+        <v>0.005070934567344578</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.01838234066963196</v>
+        <v>-0.0175665110680557</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.01796355843544006</v>
+        <v>-0.0232389879636537</v>
       </c>
       <c r="G76" t="n">
-        <v>0.002009779214859009</v>
+        <v>0.001373303797354053</v>
       </c>
       <c r="H76" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>-0.0003185285231446649</v>
       </c>
       <c r="I76" t="n">
-        <v>0.01017589867115021</v>
+        <v>0.008386914275362284</v>
       </c>
       <c r="J76" t="n">
-        <v>-0.01840853691101074</v>
+        <v>-0.01974684143882022</v>
       </c>
       <c r="K76" t="n">
-        <v>-0.01584860682487488</v>
+        <v>-0.01804031221433021</v>
       </c>
       <c r="L76" t="n">
-        <v>0.2318608611822128</v>
+        <v>0.5552685581874329</v>
       </c>
       <c r="M76" t="n">
-        <v>0.008458718657493591</v>
+        <v>0.00811224354325531</v>
       </c>
       <c r="N76" t="n">
-        <v>-0.0234239399433136</v>
+        <v>-0.02087207517438838</v>
       </c>
       <c r="O76" t="n">
-        <v>0.0009249895811080933</v>
+        <v>0.0009196360509709266</v>
       </c>
       <c r="P76" t="n">
-        <v>0.0008069276809692383</v>
+        <v>0.0009304508151277932</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.01006937026977539</v>
+        <v>0.009821227688706686</v>
       </c>
       <c r="R76" t="n">
-        <v>0.001002222299575806</v>
+        <v>0.001438136005151577</v>
       </c>
       <c r="S76" t="n">
-        <v>-0.0001042783260345459</v>
+        <v>0.0006745480280763058</v>
       </c>
       <c r="T76" t="n">
-        <v>0.005645394325256348</v>
+        <v>0.006039285268849779</v>
       </c>
       <c r="U76" t="n">
-        <v>-0.01588684320449829</v>
+        <v>-0.01289496351040002</v>
       </c>
     </row>
     <row r="77">
@@ -5421,64 +5421,64 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>0.01002523303031921</v>
+        <v>0.00757576072781299</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.02011385560035706</v>
+        <v>-0.02132063984294276</v>
       </c>
       <c r="D77" t="n">
-        <v>0.004863962531089783</v>
+        <v>0.005071202525823431</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.02867585420608521</v>
+        <v>-0.02346410521698611</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.02216872572898865</v>
+        <v>-0.02154627779282296</v>
       </c>
       <c r="G77" t="n">
-        <v>0.001201286911964417</v>
+        <v>0.00136875192720595</v>
       </c>
       <c r="H77" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>-0.001762576562255226</v>
       </c>
       <c r="I77" t="n">
-        <v>0.01117861270904541</v>
+        <v>0.0126483765227072</v>
       </c>
       <c r="J77" t="n">
-        <v>-0.02088123559951782</v>
+        <v>-0.01991995358599735</v>
       </c>
       <c r="K77" t="n">
-        <v>-0.02344417572021484</v>
+        <v>-0.0215411108224531</v>
       </c>
       <c r="L77" t="n">
-        <v>0.2100903242826462</v>
+        <v>0.3233431635896654</v>
       </c>
       <c r="M77" t="n">
-        <v>0.007862046360969543</v>
+        <v>0.006911957282425013</v>
       </c>
       <c r="N77" t="n">
-        <v>0.001123428344726562</v>
+        <v>0.004775518454828156</v>
       </c>
       <c r="O77" t="n">
-        <v>0.0009684562683105469</v>
+        <v>0.001003765014907979</v>
       </c>
       <c r="P77" t="n">
-        <v>0.0007977187633514404</v>
+        <v>0.0009751296966390769</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.01994524896144867</v>
+        <v>0.018042451165526</v>
       </c>
       <c r="R77" t="n">
-        <v>0.0009934008121490479</v>
+        <v>0.001216787513520435</v>
       </c>
       <c r="S77" t="n">
-        <v>0.0005705803632736206</v>
+        <v>0.002182810814988952</v>
       </c>
       <c r="T77" t="n">
-        <v>0.005813390016555786</v>
+        <v>0.004821905075611681</v>
       </c>
       <c r="U77" t="n">
-        <v>-0.02356761693954468</v>
+        <v>-0.02109231576511112</v>
       </c>
     </row>
     <row r="78">
@@ -5486,64 +5486,64 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>-2.688169479370117e-05</v>
+        <v>0.001452429702517851</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.02223199605941772</v>
+        <v>-0.02185928867857968</v>
       </c>
       <c r="D78" t="n">
-        <v>0.004766955971717834</v>
+        <v>0.004797634872273622</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.02080076932907104</v>
+        <v>-0.01488717805543371</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.01819872856140137</v>
+        <v>-0.02011243995186418</v>
       </c>
       <c r="G78" t="n">
-        <v>0.001414552330970764</v>
+        <v>0.001571589703133554</v>
       </c>
       <c r="H78" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>0.0008641785300409427</v>
       </c>
       <c r="I78" t="n">
-        <v>0.01027761399745941</v>
+        <v>0.009799480933821547</v>
       </c>
       <c r="J78" t="n">
-        <v>-0.01948663592338562</v>
+        <v>-0.01843080651622747</v>
       </c>
       <c r="K78" t="n">
-        <v>-0.02014404535293579</v>
+        <v>-0.01931681369125746</v>
       </c>
       <c r="L78" t="n">
-        <v>0.2342386692762375</v>
+        <v>0.5696593465758434</v>
       </c>
       <c r="M78" t="n">
-        <v>0.007849350571632385</v>
+        <v>0.008803458346292951</v>
       </c>
       <c r="N78" t="n">
-        <v>-0.01067814230918884</v>
+        <v>-0.004386979692133617</v>
       </c>
       <c r="O78" t="n">
-        <v>0.0009473711252212524</v>
+        <v>0.0009849913080525925</v>
       </c>
       <c r="P78" t="n">
-        <v>0.0006379634141921997</v>
+        <v>0.0007774682275462185</v>
       </c>
       <c r="Q78" t="n">
-        <v>-0.009822487831115723</v>
+        <v>-0.006358270948706369</v>
       </c>
       <c r="R78" t="n">
-        <v>0.001024782657623291</v>
+        <v>0.001421832566766882</v>
       </c>
       <c r="S78" t="n">
-        <v>0.0008700788021087646</v>
+        <v>0.00100344269375623</v>
       </c>
       <c r="T78" t="n">
-        <v>0.004644095897674561</v>
+        <v>0.003912445655318237</v>
       </c>
       <c r="U78" t="n">
-        <v>-0.0226111114025116</v>
+        <v>-0.02157192160003523</v>
       </c>
     </row>
     <row r="79">
@@ -5551,64 +5551,64 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.001560211181640625</v>
+        <v>-0.001723444891188934</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.01978567242622375</v>
+        <v>-0.01517859060245915</v>
       </c>
       <c r="D79" t="n">
-        <v>0.004672020673751831</v>
+        <v>0.004729500243283334</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.02420929074287415</v>
+        <v>-0.02161216089981227</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.02019116282463074</v>
+        <v>-0.02036804926908954</v>
       </c>
       <c r="G79" t="n">
-        <v>0.002426952123641968</v>
+        <v>0.001644488614299766</v>
       </c>
       <c r="H79" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>0.003294383140256823</v>
       </c>
       <c r="I79" t="n">
-        <v>0.0165461003780365</v>
+        <v>0.01541871107433919</v>
       </c>
       <c r="J79" t="n">
-        <v>-0.01648131012916565</v>
+        <v>-0.02074000564303161</v>
       </c>
       <c r="K79" t="n">
-        <v>-0.01747342944145203</v>
+        <v>-0.02195800376550357</v>
       </c>
       <c r="L79" t="n">
-        <v>0.2001520246267319</v>
+        <v>0.2359770003579777</v>
       </c>
       <c r="M79" t="n">
-        <v>0.007740259170532227</v>
+        <v>0.007125825500805819</v>
       </c>
       <c r="N79" t="n">
-        <v>-0.007700264453887939</v>
+        <v>-0.002981671625432881</v>
       </c>
       <c r="O79" t="n">
-        <v>0.001021549105644226</v>
+        <v>0.001189783637012197</v>
       </c>
       <c r="P79" t="n">
-        <v>0.0008125603199005127</v>
+        <v>0.0008347465303301613</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.008795291185379028</v>
+        <v>0.01040954925898156</v>
       </c>
       <c r="R79" t="n">
-        <v>0.001587778329849243</v>
+        <v>0.001908578476722458</v>
       </c>
       <c r="S79" t="n">
-        <v>0.0007789134979248047</v>
+        <v>0.001033031919841909</v>
       </c>
       <c r="T79" t="n">
-        <v>0.005725204944610596</v>
+        <v>0.004819318384198089</v>
       </c>
       <c r="U79" t="n">
-        <v>-0.02106711268424988</v>
+        <v>-0.01645682306573231</v>
       </c>
     </row>
     <row r="80">
@@ -5616,64 +5616,64 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>0.01002523303031921</v>
+        <v>0.01184006111114612</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.0263519287109375</v>
+        <v>-0.02143010190144219</v>
       </c>
       <c r="D80" t="n">
-        <v>0.004855617880821228</v>
+        <v>0.004854494165945402</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.0192791223526001</v>
+        <v>-0.01650896199591911</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.02090272307395935</v>
+        <v>-0.02493029581030414</v>
       </c>
       <c r="G80" t="n">
-        <v>0.001355797052383423</v>
+        <v>0.001364601339769644</v>
       </c>
       <c r="H80" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>0.0009894331128991864</v>
       </c>
       <c r="I80" t="n">
-        <v>0.01227739453315735</v>
+        <v>0.009817858003104049</v>
       </c>
       <c r="J80" t="n">
-        <v>-0.01604676246643066</v>
+        <v>-0.01947161555251206</v>
       </c>
       <c r="K80" t="n">
-        <v>-0.02077344059944153</v>
+        <v>-0.01328744047365292</v>
       </c>
       <c r="L80" t="n">
-        <v>0.2305936813354492</v>
+        <v>0.3847930473305082</v>
       </c>
       <c r="M80" t="n">
-        <v>0.007714003324508667</v>
+        <v>0.007637701044182565</v>
       </c>
       <c r="N80" t="n">
-        <v>-0.01570448279380798</v>
+        <v>-0.008033348807917264</v>
       </c>
       <c r="O80" t="n">
-        <v>0.001013413071632385</v>
+        <v>0.001069992233337097</v>
       </c>
       <c r="P80" t="n">
-        <v>0.000797465443611145</v>
+        <v>0.0009344565449073046</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.02022254467010498</v>
+        <v>0.0201230522722072</v>
       </c>
       <c r="R80" t="n">
-        <v>0.001386344432830811</v>
+        <v>0.001301237822546232</v>
       </c>
       <c r="S80" t="n">
-        <v>0.001042529940605164</v>
+        <v>0.0007709597161741302</v>
       </c>
       <c r="T80" t="n">
-        <v>0.004776611924171448</v>
+        <v>0.005092082142371223</v>
       </c>
       <c r="U80" t="n">
-        <v>-0.01664978265762329</v>
+        <v>-0.01613856580630679</v>
       </c>
     </row>
     <row r="81">
@@ -5681,64 +5681,64 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>0.01002523303031921</v>
+        <v>0.009899434534566761</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.01667419075965881</v>
+        <v>-0.02177654816243531</v>
       </c>
       <c r="D81" t="n">
-        <v>0.004818230867385864</v>
+        <v>0.005105257581215189</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.01742613315582275</v>
+        <v>-0.01877803906651019</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.02169057726860046</v>
+        <v>-0.02274260661264524</v>
       </c>
       <c r="G81" t="n">
-        <v>0.001089826226234436</v>
+        <v>0.001322498460671317</v>
       </c>
       <c r="H81" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>-0.002127518288585657</v>
       </c>
       <c r="I81" t="n">
-        <v>0.009944036602973938</v>
+        <v>0.01158482589201926</v>
       </c>
       <c r="J81" t="n">
-        <v>-0.02001520991325378</v>
+        <v>-0.01908161461259629</v>
       </c>
       <c r="K81" t="n">
-        <v>-0.01838761568069458</v>
+        <v>-0.01787637694204134</v>
       </c>
       <c r="L81" t="n">
-        <v>0.1963036358356476</v>
+        <v>0.2749755146171126</v>
       </c>
       <c r="M81" t="n">
-        <v>0.008116602897644043</v>
+        <v>0.008045326048144372</v>
       </c>
       <c r="N81" t="n">
-        <v>-0.00283871591091156</v>
+        <v>-0.006442807927384042</v>
       </c>
       <c r="O81" t="n">
-        <v>0.0009578615427017212</v>
+        <v>0.0009974730051982342</v>
       </c>
       <c r="P81" t="n">
-        <v>0.0007973611354827881</v>
+        <v>0.001055650696853624</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.01995904743671417</v>
+        <v>0.01933884437071924</v>
       </c>
       <c r="R81" t="n">
-        <v>0.001321494579315186</v>
+        <v>0.001340241135954928</v>
       </c>
       <c r="S81" t="n">
-        <v>0.0007270872592926025</v>
+        <v>0.001375080221527535</v>
       </c>
       <c r="T81" t="n">
-        <v>0.006082937121391296</v>
+        <v>0.005026509526487432</v>
       </c>
       <c r="U81" t="n">
-        <v>-0.01755979657173157</v>
+        <v>-0.01928333534537466</v>
       </c>
     </row>
     <row r="82">
@@ -5746,64 +5746,64 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>0.009644553065299988</v>
+        <v>0.009740564378597556</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.01953375339508057</v>
+        <v>-0.01839373241334959</v>
       </c>
       <c r="D82" t="n">
-        <v>0.004839718341827393</v>
+        <v>0.004921897186329962</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.01940208673477173</v>
+        <v>-0.01952863472236197</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.02059611678123474</v>
+        <v>-0.01841774721621271</v>
       </c>
       <c r="G82" t="n">
-        <v>0.001525476574897766</v>
+        <v>0.001126119161884032</v>
       </c>
       <c r="H82" t="n">
-        <v>-5.187094211578369e-05</v>
+        <v>0.002034797055541922</v>
       </c>
       <c r="I82" t="n">
-        <v>0.0153450071811676</v>
+        <v>0.0135024176098191</v>
       </c>
       <c r="J82" t="n">
-        <v>-0.01959347724914551</v>
+        <v>-0.01634685114641524</v>
       </c>
       <c r="K82" t="n">
-        <v>-0.01803970336914062</v>
+        <v>-0.01695253693176195</v>
       </c>
       <c r="L82" t="n">
-        <v>0.1570475399494171</v>
+        <v>0.1051061109875862</v>
       </c>
       <c r="M82" t="n">
-        <v>0.007821559906005859</v>
+        <v>0.006930172642100495</v>
       </c>
       <c r="N82" t="n">
-        <v>-0.02440005540847778</v>
+        <v>-0.02226825287947748</v>
       </c>
       <c r="O82" t="n">
-        <v>0.0008432269096374512</v>
+        <v>0.000750074385329365</v>
       </c>
       <c r="P82" t="n">
-        <v>0.0006364881992340088</v>
+        <v>0.0006428894704733289</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.01033328473567963</v>
+        <v>0.006250017125216194</v>
       </c>
       <c r="R82" t="n">
-        <v>0.001046806573867798</v>
+        <v>0.0007635664288641528</v>
       </c>
       <c r="S82" t="n">
-        <v>0.0002075880765914917</v>
+        <v>0.001127775530577961</v>
       </c>
       <c r="T82" t="n">
-        <v>0.005788087844848633</v>
+        <v>0.005398603151012969</v>
       </c>
       <c r="U82" t="n">
-        <v>-0.01672521233558655</v>
+        <v>-0.0177676872754548</v>
       </c>
     </row>
     <row r="83">
@@ -5811,64 +5811,64 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.007029145956039429</v>
+        <v>-0.007891549008130015</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.02201449871063232</v>
+        <v>-0.0179775062399892</v>
       </c>
       <c r="D83" t="n">
-        <v>0.004693210124969482</v>
+        <v>0.004823431763125481</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.01990503072738647</v>
+        <v>-0.02249651979156037</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.01740986108779907</v>
+        <v>-0.02264645455987425</v>
       </c>
       <c r="G83" t="n">
-        <v>0.001105040311813354</v>
+        <v>0.001188896757046392</v>
       </c>
       <c r="H83" t="n">
-        <v>-5.187094211578369e-05</v>
+        <v>-0.001244093021886383</v>
       </c>
       <c r="I83" t="n">
-        <v>0.01811853051185608</v>
+        <v>0.01565984576351768</v>
       </c>
       <c r="J83" t="n">
-        <v>-0.01783347129821777</v>
+        <v>-0.01616140580420206</v>
       </c>
       <c r="K83" t="n">
-        <v>-0.01722279191017151</v>
+        <v>-0.02033229223515234</v>
       </c>
       <c r="L83" t="n">
-        <v>0.2352146506309509</v>
+        <v>0.456905867084439</v>
       </c>
       <c r="M83" t="n">
-        <v>0.007842674851417542</v>
+        <v>0.007775740742261852</v>
       </c>
       <c r="N83" t="n">
-        <v>-0.004347160458564758</v>
+        <v>-0.007541201345426173</v>
       </c>
       <c r="O83" t="n">
-        <v>0.0008031129837036133</v>
+        <v>0.000712360834659305</v>
       </c>
       <c r="P83" t="n">
-        <v>0.0006006807088851929</v>
+        <v>0.0006050737946395207</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.009999647736549377</v>
+        <v>0.009584130610258252</v>
       </c>
       <c r="R83" t="n">
-        <v>0.0007699877023696899</v>
+        <v>0.0006361648511431806</v>
       </c>
       <c r="S83" t="n">
-        <v>0.0008136928081512451</v>
+        <v>0.001660269272129864</v>
       </c>
       <c r="T83" t="n">
-        <v>0.005871862173080444</v>
+        <v>0.004679760147035322</v>
       </c>
       <c r="U83" t="n">
-        <v>-0.01691493391990662</v>
+        <v>-0.02053752540100821</v>
       </c>
     </row>
     <row r="84">
@@ -5876,64 +5876,64 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.02008455991744995</v>
+        <v>-0.02065172527467513</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.0167391300201416</v>
+        <v>-0.02015135715928697</v>
       </c>
       <c r="D84" t="n">
-        <v>0.004690706729888916</v>
+        <v>0.005100862369097887</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.01854062080383301</v>
+        <v>-0.01873847649674098</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.02191165089607239</v>
+        <v>-0.02474483758994533</v>
       </c>
       <c r="G84" t="n">
-        <v>0.001059561967849731</v>
+        <v>0.001196901906860036</v>
       </c>
       <c r="H84" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>-0.0002392231557590601</v>
       </c>
       <c r="I84" t="n">
-        <v>0.0097665935754776</v>
+        <v>0.01033485744404116</v>
       </c>
       <c r="J84" t="n">
-        <v>-0.01805463433265686</v>
+        <v>-0.0211827506439361</v>
       </c>
       <c r="K84" t="n">
-        <v>-0.01751390099525452</v>
+        <v>-0.01946810663112856</v>
       </c>
       <c r="L84" t="n">
-        <v>0.1408978253602982</v>
+        <v>0.1718385121439943</v>
       </c>
       <c r="M84" t="n">
-        <v>0.00821840763092041</v>
+        <v>0.007689388983961007</v>
       </c>
       <c r="N84" t="n">
-        <v>-0.02236181497573853</v>
+        <v>-0.0179552935508562</v>
       </c>
       <c r="O84" t="n">
-        <v>0.0008065253496170044</v>
+        <v>0.0007306123225194907</v>
       </c>
       <c r="P84" t="n">
-        <v>0.0008012950420379639</v>
+        <v>0.0007663605317588479</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.01979243755340576</v>
+        <v>0.0173999761617437</v>
       </c>
       <c r="R84" t="n">
-        <v>0.001303538680076599</v>
+        <v>0.001225050006127243</v>
       </c>
       <c r="S84" t="n">
-        <v>0.0009819716215133667</v>
+        <v>0.0006976665026054086</v>
       </c>
       <c r="T84" t="n">
-        <v>0.005691677331924438</v>
+        <v>0.00525315472690229</v>
       </c>
       <c r="U84" t="n">
-        <v>-0.01870587468147278</v>
+        <v>-0.01547462999279304</v>
       </c>
     </row>
     <row r="85">
@@ -5941,64 +5941,64 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.02043446898460388</v>
+        <v>-0.01953989143676719</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.02097374200820923</v>
+        <v>-0.01910003204990569</v>
       </c>
       <c r="D85" t="n">
-        <v>0.004791319370269775</v>
+        <v>0.004851206769002899</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.01743939518928528</v>
+        <v>-0.02078445927983876</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.02038627862930298</v>
+        <v>-0.0226579493915574</v>
       </c>
       <c r="G85" t="n">
-        <v>0.001709982752799988</v>
+        <v>0.001552093320154061</v>
       </c>
       <c r="H85" t="n">
-        <v>0.09284542500972748</v>
+        <v>0.09274715753138452</v>
       </c>
       <c r="I85" t="n">
-        <v>0.01443813741207123</v>
+        <v>0.0106797349163995</v>
       </c>
       <c r="J85" t="n">
-        <v>-0.01716578006744385</v>
+        <v>-0.01776957490604534</v>
       </c>
       <c r="K85" t="n">
-        <v>-0.01786011457443237</v>
+        <v>-0.02089558794892145</v>
       </c>
       <c r="L85" t="n">
-        <v>0.2334142625331879</v>
+        <v>0.5295966061000582</v>
       </c>
       <c r="M85" t="n">
-        <v>0.008372694253921509</v>
+        <v>0.007951844093349914</v>
       </c>
       <c r="N85" t="n">
-        <v>3.053247928619385e-05</v>
+        <v>-0.01109173023868881</v>
       </c>
       <c r="O85" t="n">
-        <v>0.0008753389120101929</v>
+        <v>0.0008969385366460693</v>
       </c>
       <c r="P85" t="n">
-        <v>0.0005818754434585571</v>
+        <v>0.0005496870872615202</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.01014420390129089</v>
+        <v>0.007942533299986442</v>
       </c>
       <c r="R85" t="n">
-        <v>0.0007864832878112793</v>
+        <v>0.0007331145338655148</v>
       </c>
       <c r="S85" t="n">
-        <v>0.0006668567657470703</v>
+        <v>0.002101845524055513</v>
       </c>
       <c r="T85" t="n">
-        <v>0.004100754857063293</v>
+        <v>0.004578550235667643</v>
       </c>
       <c r="U85" t="n">
-        <v>-0.01738855242729187</v>
+        <v>-0.01663626067010177</v>
       </c>
     </row>
     <row r="86">
@@ -6006,64 +6006,64 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>0.01007463037967682</v>
+        <v>0.008970784705581176</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.01979571580886841</v>
+        <v>-0.02247860768740997</v>
       </c>
       <c r="D86" t="n">
-        <v>0.004860624670982361</v>
+        <v>0.004852025613000256</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.01757818460464478</v>
+        <v>-0.02116635405355098</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.02044954895973206</v>
+        <v>-0.02119279962300756</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0010642409324646</v>
+        <v>0.001333214539917325</v>
       </c>
       <c r="H86" t="n">
-        <v>0.005065008997917175</v>
+        <v>0.004711344366733736</v>
       </c>
       <c r="I86" t="n">
-        <v>0.01502855122089386</v>
+        <v>0.01199494016884731</v>
       </c>
       <c r="J86" t="n">
-        <v>-0.0210539698600769</v>
+        <v>-0.022390155440263</v>
       </c>
       <c r="K86" t="n">
-        <v>-0.01755645871162415</v>
+        <v>-0.01838071821003481</v>
       </c>
       <c r="L86" t="n">
-        <v>0.1499298959970474</v>
+        <v>0.1771466489037384</v>
       </c>
       <c r="M86" t="n">
-        <v>0.008290767669677734</v>
+        <v>0.007474047190902664</v>
       </c>
       <c r="N86" t="n">
-        <v>-0.005818158388137817</v>
+        <v>-0.01082514229709662</v>
       </c>
       <c r="O86" t="n">
-        <v>0.001022279262542725</v>
+        <v>0.001076244926560764</v>
       </c>
       <c r="P86" t="n">
-        <v>0.000813901424407959</v>
+        <v>0.0008574182582027584</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.008733734488487244</v>
+        <v>0.01010845970259273</v>
       </c>
       <c r="R86" t="n">
-        <v>0.001568824052810669</v>
+        <v>0.001411701173693787</v>
       </c>
       <c r="S86" t="n">
-        <v>0.0008148103952407837</v>
+        <v>0.0009315205179891818</v>
       </c>
       <c r="T86" t="n">
-        <v>0.003570288419723511</v>
+        <v>0.003625143557095367</v>
       </c>
       <c r="U86" t="n">
-        <v>-0.01624482870101929</v>
+        <v>-0.01400927939554318</v>
       </c>
     </row>
     <row r="87">
@@ -6071,64 +6071,64 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>0.01002523303031921</v>
+        <v>0.01019128941535873</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.01824495196342468</v>
+        <v>-0.01956094888359421</v>
       </c>
       <c r="D87" t="n">
-        <v>0.004832804203033447</v>
+        <v>0.004965363533229302</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.01352542638778687</v>
+        <v>-0.01643638137946328</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.01766011118888855</v>
+        <v>-0.02206434073159024</v>
       </c>
       <c r="G87" t="n">
-        <v>0.002117037773132324</v>
+        <v>0.001739840932303219</v>
       </c>
       <c r="H87" t="n">
-        <v>0.005536526441574097</v>
+        <v>0.001151853744867285</v>
       </c>
       <c r="I87" t="n">
-        <v>0.01668454706668854</v>
+        <v>0.01554887137741691</v>
       </c>
       <c r="J87" t="n">
-        <v>-0.01750773191452026</v>
+        <v>-0.02092691004449476</v>
       </c>
       <c r="K87" t="n">
-        <v>-0.02013081312179565</v>
+        <v>-0.02074831624895541</v>
       </c>
       <c r="L87" t="n">
-        <v>0.7399450540542603</v>
+        <v>0.4774936400382701</v>
       </c>
       <c r="M87" t="n">
-        <v>0.00766696035861969</v>
+        <v>0.008212073867742304</v>
       </c>
       <c r="N87" t="n">
-        <v>-0.02021756768226624</v>
+        <v>-0.01679945345245234</v>
       </c>
       <c r="O87" t="n">
-        <v>0.0009185969829559326</v>
+        <v>0.0008948664440828868</v>
       </c>
       <c r="P87" t="n">
-        <v>0.0007953494787216187</v>
+        <v>0.0007721646174755907</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.02005906403064728</v>
+        <v>0.01897945241551695</v>
       </c>
       <c r="R87" t="n">
-        <v>0.001503199338912964</v>
+        <v>0.001141870437111237</v>
       </c>
       <c r="S87" t="n">
-        <v>0.00147603452205658</v>
+        <v>0.001008657285703298</v>
       </c>
       <c r="T87" t="n">
-        <v>0.005805939435958862</v>
+        <v>0.005328727569527555</v>
       </c>
       <c r="U87" t="n">
-        <v>-0.01515626907348633</v>
+        <v>-0.01387850038872614</v>
       </c>
     </row>
     <row r="88">
@@ -6136,64 +6136,64 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>0.02350252866744995</v>
+        <v>0.01759500798095779</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.01721605658531189</v>
+        <v>-0.02443473280478135</v>
       </c>
       <c r="D88" t="n">
-        <v>0.005110070109367371</v>
+        <v>0.004970893108821851</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.01800078153610229</v>
+        <v>-0.01673056706315824</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.02302268147468567</v>
+        <v>-0.02135500807881275</v>
       </c>
       <c r="G88" t="n">
-        <v>0.00143858790397644</v>
+        <v>0.001331397705245858</v>
       </c>
       <c r="H88" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>0.001248288652703869</v>
       </c>
       <c r="I88" t="n">
-        <v>0.0106516033411026</v>
+        <v>0.009005236580442767</v>
       </c>
       <c r="J88" t="n">
-        <v>-0.02394917607307434</v>
+        <v>-0.02417693209441801</v>
       </c>
       <c r="K88" t="n">
-        <v>-0.02445822954177856</v>
+        <v>-0.02413176768626213</v>
       </c>
       <c r="L88" t="n">
-        <v>0.2962198853492737</v>
+        <v>0.5218096470969058</v>
       </c>
       <c r="M88" t="n">
-        <v>0.006851151585578918</v>
+        <v>0.007857994446315728</v>
       </c>
       <c r="N88" t="n">
-        <v>-0.01283654570579529</v>
+        <v>-0.02803154583154021</v>
       </c>
       <c r="O88" t="n">
-        <v>0.0009917318820953369</v>
+        <v>0.001063214694281062</v>
       </c>
       <c r="P88" t="n">
-        <v>0.0008066296577453613</v>
+        <v>0.0008317879529503156</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.01002936065196991</v>
+        <v>0.008888909808990044</v>
       </c>
       <c r="R88" t="n">
-        <v>0.00140678882598877</v>
+        <v>0.001638309939854388</v>
       </c>
       <c r="S88" t="n">
-        <v>0.001206204295158386</v>
+        <v>0.001233611551829242</v>
       </c>
       <c r="T88" t="n">
-        <v>0.005349114537239075</v>
+        <v>0.004803217842342633</v>
       </c>
       <c r="U88" t="n">
-        <v>-0.01786917448043823</v>
+        <v>-0.01814710458491775</v>
       </c>
     </row>
     <row r="89">
@@ -6201,64 +6201,64 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>0.01002523303031921</v>
+        <v>0.01076264201532558</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.0194074809551239</v>
+        <v>-0.02121559203929618</v>
       </c>
       <c r="D89" t="n">
-        <v>0.004761576652526855</v>
+        <v>0.004916746113014371</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.02065747976303101</v>
+        <v>-0.01787343123909005</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.02230352163314819</v>
+        <v>-0.02293381782716598</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0009669363498687744</v>
+        <v>0.0008869261295832637</v>
       </c>
       <c r="H89" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>0.001916483511437612</v>
       </c>
       <c r="I89" t="n">
-        <v>0.014894038438797</v>
+        <v>0.01464205274725366</v>
       </c>
       <c r="J89" t="n">
-        <v>-0.02136063575744629</v>
+        <v>-0.02443636277310826</v>
       </c>
       <c r="K89" t="n">
-        <v>-0.01590541005134583</v>
+        <v>-0.01541905409048337</v>
       </c>
       <c r="L89" t="n">
-        <v>0.2040378153324127</v>
+        <v>0.1655364785206367</v>
       </c>
       <c r="M89" t="n">
-        <v>0.008211344480514526</v>
+        <v>0.007417017316289155</v>
       </c>
       <c r="N89" t="n">
-        <v>-0.01757895946502686</v>
+        <v>-0.01585040017765346</v>
       </c>
       <c r="O89" t="n">
-        <v>0.0009692609310150146</v>
+        <v>0.0009020587555408089</v>
       </c>
       <c r="P89" t="n">
-        <v>0.0008066296577453613</v>
+        <v>0.0008701529858975858</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.01006568968296051</v>
+        <v>0.01048138400502333</v>
       </c>
       <c r="R89" t="n">
-        <v>0.001402020454406738</v>
+        <v>0.001515115901036427</v>
       </c>
       <c r="S89" t="n">
-        <v>0.0009594857692718506</v>
+        <v>0.0013179362836441</v>
       </c>
       <c r="T89" t="n">
-        <v>0.005859225988388062</v>
+        <v>0.00531382702361714</v>
       </c>
       <c r="U89" t="n">
-        <v>-0.015766441822052</v>
+        <v>-0.01748502494599257</v>
       </c>
     </row>
     <row r="90">
@@ -6266,64 +6266,64 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>0.02312183380126953</v>
+        <v>0.01812271313977812</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.01743209362030029</v>
+        <v>-0.02320360000319436</v>
       </c>
       <c r="D90" t="n">
-        <v>0.00504620373249054</v>
+        <v>0.005006532378534069</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.01666906476020813</v>
+        <v>-0.01682388222047567</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.01974907517433167</v>
+        <v>-0.02074840707009773</v>
       </c>
       <c r="G90" t="n">
-        <v>0.002074882388114929</v>
+        <v>0.001486972320326516</v>
       </c>
       <c r="H90" t="n">
-        <v>0.0002395212650299072</v>
+        <v>0.0005906083968387345</v>
       </c>
       <c r="I90" t="n">
-        <v>0.01203793287277222</v>
+        <v>0.01156492858047674</v>
       </c>
       <c r="J90" t="n">
-        <v>-0.0165582001209259</v>
+        <v>-0.01773561932339413</v>
       </c>
       <c r="K90" t="n">
-        <v>-0.0165201723575592</v>
+        <v>-0.01635781932375834</v>
       </c>
       <c r="L90" t="n">
-        <v>0.2593172490596771</v>
+        <v>0.4401630692572858</v>
       </c>
       <c r="M90" t="n">
-        <v>0.007897257804870605</v>
+        <v>0.008036858295647304</v>
       </c>
       <c r="N90" t="n">
-        <v>-0.01667946577072144</v>
+        <v>-0.01309525327480789</v>
       </c>
       <c r="O90" t="n">
-        <v>0.001042991876602173</v>
+        <v>0.001204211320703502</v>
       </c>
       <c r="P90" t="n">
-        <v>0.0008012950420379639</v>
+        <v>0.001085180403075769</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.02008984982967377</v>
+        <v>0.0195547790215981</v>
       </c>
       <c r="R90" t="n">
-        <v>0.001399919390678406</v>
+        <v>0.00142298672670547</v>
       </c>
       <c r="S90" t="n">
-        <v>0.0006885826587677002</v>
+        <v>0.00131630874024217</v>
       </c>
       <c r="T90" t="n">
-        <v>0.005872189998626709</v>
+        <v>0.005588725693801492</v>
       </c>
       <c r="U90" t="n">
-        <v>-0.02014255523681641</v>
+        <v>-0.01777758259069425</v>
       </c>
     </row>
     <row r="91">
@@ -6331,64 +6331,64 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>0.01002523303031921</v>
+        <v>0.009502357630893745</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.01847848296165466</v>
+        <v>-0.01797960325056521</v>
       </c>
       <c r="D91" t="n">
-        <v>0.004714563488960266</v>
+        <v>0.004821198235654574</v>
       </c>
       <c r="E91" t="n">
-        <v>-0.01558014750480652</v>
+        <v>-0.01357308410560632</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.01751044392585754</v>
+        <v>-0.0205261712538949</v>
       </c>
       <c r="G91" t="n">
-        <v>0.001129955053329468</v>
+        <v>0.001180861602741273</v>
       </c>
       <c r="H91" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>0.001867933796433977</v>
       </c>
       <c r="I91" t="n">
-        <v>0.01294362545013428</v>
+        <v>0.0135612252718437</v>
       </c>
       <c r="J91" t="n">
-        <v>-0.01576808094978333</v>
+        <v>-0.01583905524622849</v>
       </c>
       <c r="K91" t="n">
-        <v>-0.016816645860672</v>
+        <v>-0.01805328456551946</v>
       </c>
       <c r="L91" t="n">
-        <v>1.135173678398132</v>
+        <v>1.045763317873339</v>
       </c>
       <c r="M91" t="n">
-        <v>0.008016496896743774</v>
+        <v>0.007742944932229523</v>
       </c>
       <c r="N91" t="n">
-        <v>0.05063058435916901</v>
+        <v>0.04961361221872863</v>
       </c>
       <c r="O91" t="n">
-        <v>0.0008673220872879028</v>
+        <v>0.0006859491341870791</v>
       </c>
       <c r="P91" t="n">
-        <v>0.0005851686000823975</v>
+        <v>0.0006650075265986143</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.01000998914241791</v>
+        <v>0.009840839814884903</v>
       </c>
       <c r="R91" t="n">
-        <v>0.000597044825553894</v>
+        <v>0.001061438263297754</v>
       </c>
       <c r="S91" t="n">
-        <v>0.0004480481147766113</v>
+        <v>0.0006697271336828385</v>
       </c>
       <c r="T91" t="n">
-        <v>0.00653192400932312</v>
+        <v>0.006067748540149138</v>
       </c>
       <c r="U91" t="n">
-        <v>-0.01474416255950928</v>
+        <v>-0.0155844274279954</v>
       </c>
     </row>
     <row r="92">
@@ -6396,64 +6396,64 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.0009574294090270996</v>
+        <v>0.0008921890650141752</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.01535442471504211</v>
+        <v>-0.01722511732643812</v>
       </c>
       <c r="D92" t="n">
-        <v>0.004803270101547241</v>
+        <v>0.004872732133457853</v>
       </c>
       <c r="E92" t="n">
-        <v>-0.01401305198669434</v>
+        <v>-0.01370160930863782</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.01697325706481934</v>
+        <v>-0.01767720783998136</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0009666681289672852</v>
+        <v>0.0009263706265316514</v>
       </c>
       <c r="H92" t="n">
-        <v>-5.187094211578369e-05</v>
+        <v>-0.0002484753719696999</v>
       </c>
       <c r="I92" t="n">
-        <v>0.0121552050113678</v>
+        <v>0.01230458525821065</v>
       </c>
       <c r="J92" t="n">
-        <v>-0.0156090259552002</v>
+        <v>-0.01490578688457011</v>
       </c>
       <c r="K92" t="n">
-        <v>-0.017616868019104</v>
+        <v>-0.01561465503223667</v>
       </c>
       <c r="L92" t="n">
-        <v>1.186724901199341</v>
+        <v>1.024609759983735</v>
       </c>
       <c r="M92" t="n">
-        <v>0.007938310503959656</v>
+        <v>0.008377213892443332</v>
       </c>
       <c r="N92" t="n">
-        <v>0.04995059967041016</v>
+        <v>0.05007467537480588</v>
       </c>
       <c r="O92" t="n">
-        <v>0.0008617192506790161</v>
+        <v>0.000739413384871464</v>
       </c>
       <c r="P92" t="n">
-        <v>0.0006344020366668701</v>
+        <v>0.0007209894045299879</v>
       </c>
       <c r="Q92" t="n">
-        <v>-0.009892135858535767</v>
+        <v>-0.007411655913244634</v>
       </c>
       <c r="R92" t="n">
-        <v>0.0008242875337600708</v>
+        <v>0.001319186784755364</v>
       </c>
       <c r="S92" t="n">
-        <v>0.0003148317337036133</v>
+        <v>0.000377089043727176</v>
       </c>
       <c r="T92" t="n">
-        <v>0.005517333745956421</v>
+        <v>0.005304180449979508</v>
       </c>
       <c r="U92" t="n">
-        <v>-0.01541846990585327</v>
+        <v>-0.01789339843049335</v>
       </c>
     </row>
     <row r="93">
@@ -6461,64 +6461,64 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>0.02003422379493713</v>
+        <v>0.01517761773560522</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.01836156845092773</v>
+        <v>-0.01378600132666252</v>
       </c>
       <c r="D93" t="n">
-        <v>0.004804223775863647</v>
+        <v>0.005269816086153115</v>
       </c>
       <c r="E93" t="n">
-        <v>-0.01835888624191284</v>
+        <v>-0.02237715037655385</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.02137067914009094</v>
+        <v>-0.0189125290501569</v>
       </c>
       <c r="G93" t="n">
-        <v>0.001183778047561646</v>
+        <v>0.001233997920076999</v>
       </c>
       <c r="H93" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>0.004769194272450528</v>
       </c>
       <c r="I93" t="n">
-        <v>0.0143323540687561</v>
+        <v>0.01305722557660524</v>
       </c>
       <c r="J93" t="n">
-        <v>-0.01598876714706421</v>
+        <v>-0.01749311460614425</v>
       </c>
       <c r="K93" t="n">
-        <v>-0.01409277319908142</v>
+        <v>-0.01419285550157731</v>
       </c>
       <c r="L93" t="n">
-        <v>0.1669494211673737</v>
+        <v>0.1782754427606217</v>
       </c>
       <c r="M93" t="n">
-        <v>0.007633775472640991</v>
+        <v>0.008485384108829092</v>
       </c>
       <c r="N93" t="n">
-        <v>-0.02185928821563721</v>
+        <v>-0.01531041656806508</v>
       </c>
       <c r="O93" t="n">
-        <v>0.0008124858140945435</v>
+        <v>0.0006203273591763</v>
       </c>
       <c r="P93" t="n">
-        <v>0.0006320178508758545</v>
+        <v>0.0006718037268987378</v>
       </c>
       <c r="Q93" t="n">
-        <v>-0.009962528944015503</v>
+        <v>-0.0104823623451569</v>
       </c>
       <c r="R93" t="n">
-        <v>0.0009791404008865356</v>
+        <v>0.000805774874197507</v>
       </c>
       <c r="S93" t="n">
-        <v>0.0005429685115814209</v>
+        <v>0.001070501979676316</v>
       </c>
       <c r="T93" t="n">
-        <v>0.005645543336868286</v>
+        <v>0.006171728542266966</v>
       </c>
       <c r="U93" t="n">
-        <v>-0.01456740498542786</v>
+        <v>-0.0181257344744217</v>
       </c>
     </row>
     <row r="94">
@@ -6526,64 +6526,64 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>0.009949132800102234</v>
+        <v>0.007412816633420499</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.03683313727378845</v>
+        <v>-0.0446475831532737</v>
       </c>
       <c r="D94" t="n">
-        <v>0.004736408591270447</v>
+        <v>0.004756677249709467</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.03994408249855042</v>
+        <v>-0.0389247903562002</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.03939074277877808</v>
+        <v>-0.03466324604442086</v>
       </c>
       <c r="G94" t="n">
-        <v>0.001118496060371399</v>
+        <v>0.001516708578536827</v>
       </c>
       <c r="H94" t="n">
-        <v>-0.0002816170454025269</v>
+        <v>0.001276475267040529</v>
       </c>
       <c r="I94" t="n">
-        <v>0.01530811190605164</v>
+        <v>0.01313470567932691</v>
       </c>
       <c r="J94" t="n">
-        <v>-0.03617703914642334</v>
+        <v>-0.03565550956746364</v>
       </c>
       <c r="K94" t="n">
-        <v>-0.03597131371498108</v>
+        <v>-0.03901443240915207</v>
       </c>
       <c r="L94" t="n">
-        <v>1.106637358665466</v>
+        <v>0.7995632698696914</v>
       </c>
       <c r="M94" t="n">
-        <v>0.008138775825500488</v>
+        <v>0.007483101015909223</v>
       </c>
       <c r="N94" t="n">
-        <v>-0.006234332919120789</v>
+        <v>-0.003630289425765665</v>
       </c>
       <c r="O94" t="n">
-        <v>0.001012936234474182</v>
+        <v>0.001101093738566371</v>
       </c>
       <c r="P94" t="n">
-        <v>0.0008125603199005127</v>
+        <v>0.001074916881175501</v>
       </c>
       <c r="Q94" t="n">
-        <v>-0.008762210607528687</v>
+        <v>-0.0104109754163058</v>
       </c>
       <c r="R94" t="n">
-        <v>0.001210987567901611</v>
+        <v>0.001493458267277201</v>
       </c>
       <c r="S94" t="n">
-        <v>0.000804513692855835</v>
+        <v>0.0009948618360522364</v>
       </c>
       <c r="T94" t="n">
-        <v>0.005376607179641724</v>
+        <v>0.004854667293655209</v>
       </c>
       <c r="U94" t="n">
-        <v>-0.03373169898986816</v>
+        <v>-0.03316562940453288</v>
       </c>
     </row>
     <row r="95">
@@ -6591,64 +6591,64 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>0.01002523303031921</v>
+        <v>0.01030255267053171</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.01836186647415161</v>
+        <v>-0.0167116404337546</v>
       </c>
       <c r="D95" t="n">
-        <v>0.004752218723297119</v>
+        <v>0.004953081869929527</v>
       </c>
       <c r="E95" t="n">
-        <v>-0.01851189136505127</v>
+        <v>-0.01958220646369664</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.01923045516014099</v>
+        <v>-0.02317775452996194</v>
       </c>
       <c r="G95" t="n">
-        <v>0.001396581530570984</v>
+        <v>0.001171410970361958</v>
       </c>
       <c r="H95" t="n">
-        <v>-1.053512096405029e-05</v>
+        <v>0.001753240455622385</v>
       </c>
       <c r="I95" t="n">
-        <v>0.01088304817676544</v>
+        <v>0.01278644595703444</v>
       </c>
       <c r="J95" t="n">
-        <v>-0.02435219287872314</v>
+        <v>-0.02181832996129259</v>
       </c>
       <c r="K95" t="n">
-        <v>-0.01832437515258789</v>
+        <v>-0.02104706756435753</v>
       </c>
       <c r="L95" t="n">
-        <v>0.1380967646837234</v>
+        <v>0.1209442762668708</v>
       </c>
       <c r="M95" t="n">
-        <v>0.007813125848770142</v>
+        <v>0.007431660511549149</v>
       </c>
       <c r="N95" t="n">
-        <v>-0.01733240485191345</v>
+        <v>-0.02177401364446366</v>
       </c>
       <c r="O95" t="n">
-        <v>0.0009242892265319824</v>
+        <v>0.0009450559597721797</v>
       </c>
       <c r="P95" t="n">
-        <v>0.0008140802383422852</v>
+        <v>0.0008265491639848922</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.009980484843254089</v>
+        <v>0.01039056618128782</v>
       </c>
       <c r="R95" t="n">
-        <v>0.001255497336387634</v>
+        <v>0.001664170736820095</v>
       </c>
       <c r="S95" t="n">
-        <v>0.0006222724914550781</v>
+        <v>0.001062196629083161</v>
       </c>
       <c r="T95" t="n">
-        <v>0.005465298891067505</v>
+        <v>0.005688717040679769</v>
       </c>
       <c r="U95" t="n">
-        <v>-0.01693099737167358</v>
+        <v>-0.0187223928542127</v>
       </c>
     </row>
     <row r="96">
@@ -6656,64 +6656,64 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>-2.688169479370117e-05</v>
+        <v>-0.0005718567834698854</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.02004551887512207</v>
+        <v>-0.021836444451081</v>
       </c>
       <c r="D96" t="n">
-        <v>0.004813015460968018</v>
+        <v>0.004948126224134058</v>
       </c>
       <c r="E96" t="n">
-        <v>-0.01848012208938599</v>
+        <v>-0.02017518410587084</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.0199628472328186</v>
+        <v>-0.02020532263890681</v>
       </c>
       <c r="G96" t="n">
-        <v>0.00117473304271698</v>
+        <v>0.001410188247515504</v>
       </c>
       <c r="H96" t="n">
-        <v>-5.187094211578369e-05</v>
+        <v>-0.002488642029702269</v>
       </c>
       <c r="I96" t="n">
-        <v>0.01223428547382355</v>
+        <v>0.01028278244229349</v>
       </c>
       <c r="J96" t="n">
-        <v>-0.01734691858291626</v>
+        <v>-0.0184091484700958</v>
       </c>
       <c r="K96" t="n">
-        <v>-0.01633796095848083</v>
+        <v>-0.01549089139777988</v>
       </c>
       <c r="L96" t="n">
-        <v>0.1783044338226318</v>
+        <v>0.3075343838382359</v>
       </c>
       <c r="M96" t="n">
-        <v>0.008308261632919312</v>
+        <v>0.00845894368332987</v>
       </c>
       <c r="N96" t="n">
-        <v>-0.02181729674339294</v>
+        <v>-0.02768445931477762</v>
       </c>
       <c r="O96" t="n">
-        <v>0.0009145587682723999</v>
+        <v>0.0008881529311228791</v>
       </c>
       <c r="P96" t="n">
-        <v>0.000813901424407959</v>
+        <v>0.0009187345168178404</v>
       </c>
       <c r="Q96" t="n">
-        <v>-0.009988248348236084</v>
+        <v>-0.008531635556062876</v>
       </c>
       <c r="R96" t="n">
-        <v>0.00138014554977417</v>
+        <v>0.001543266646864486</v>
       </c>
       <c r="S96" t="n">
-        <v>0.000217631459236145</v>
+        <v>0.0009444404228524121</v>
       </c>
       <c r="T96" t="n">
-        <v>0.004572287201881409</v>
+        <v>0.004322497452663901</v>
       </c>
       <c r="U96" t="n">
-        <v>-0.01387938857078552</v>
+        <v>-0.01215761660848057</v>
       </c>
     </row>
   </sheetData>
